--- a/Excel/Triage_y_Evaluacion_Basica_Enfermeria.xlsx
+++ b/Excel/Triage_y_Evaluacion_Basica_Enfermeria.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Hernán\Desktop\Administracion HernanMayol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Hernán\Desktop\Administracion HernanMayol\Python_ISSUNNE\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52226504-6C1C-4FB0-BAEB-9CCC63F88B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487ACF8A-A6B1-44FB-867C-EF7A407A6785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registro_Triage" sheetId="1" r:id="rId1"/>
@@ -270,9 +270,48 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="143">
+  <dxfs count="28">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -286,57 +325,11 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -357,840 +350,34 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1221,21 +408,21 @@
     <sortCondition ref="A1:A4"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Fecha" dataDxfId="142"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hora" dataDxfId="141"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Fecha" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hora" dataDxfId="26"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ID Paciente"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Nombre y Apellido" dataDxfId="140"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Nombre y Apellido" dataDxfId="25"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Peso (kg)"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Talla (m)" dataDxfId="132"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Perímetro Cintura (cm)" dataDxfId="131"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Presión Sistólica 1" dataDxfId="138"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Presión Sistólica 2" dataDxfId="137"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Presión Diastólica 1" dataDxfId="136"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Presión Diastólica 2" dataDxfId="135"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Frecuencia Cardíaca" dataDxfId="134"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Glucemia (mg/dl)" dataDxfId="133"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Saturación O2 (%)" dataDxfId="0"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Observaciones/Comentarios" dataDxfId="139"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Talla (m)" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Perímetro Cintura (cm)" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Presión Sistólica 1" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Presión Sistólica 2" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Presión Diastólica 1" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Presión Diastólica 2" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Frecuencia Cardíaca" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Glucemia (mg/dl)" dataDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Saturación O2 (%)" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Observaciones/Comentarios" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1245,25 +432,25 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla_Calculos" displayName="Tabla_Calculos" ref="A1:J10" totalsRowShown="0">
   <autoFilter ref="A1:J10" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID Paciente" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID Paciente" dataDxfId="9">
       <calculatedColumnFormula>Tabla_Triage[[#This Row],[ID Paciente]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Fecha" dataDxfId="12">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Fecha" dataDxfId="8">
       <calculatedColumnFormula>Tabla_Triage[[#This Row],[Fecha]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="IMC" dataDxfId="11">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="IMC" dataDxfId="7">
       <calculatedColumnFormula>IFERROR(Registro_Triage!E2/(Registro_Triage!F2^2),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Clasificación IMC" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Clasificación IMC" dataDxfId="6">
       <calculatedColumnFormula>IF(C2="","",IF(C2&lt;18.5,"Bajo peso",IF(C2&lt;25,"Normal",IF(C2&lt;30,"Sobrepeso","Obesidad"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Presión Sistólica Promedio" dataDxfId="9">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Presión Sistólica Promedio" dataDxfId="5">
       <calculatedColumnFormula>IF(COUNT(Registro_Triage!E2:N2)=0,"",AVERAGE(Registro_Triage!E2:N2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Presión Diastólica Promedio" dataDxfId="8">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Presión Diastólica Promedio" dataDxfId="4">
       <calculatedColumnFormula>IF(COUNT(Registro_Triage!E2:N2)=0,"",AVERAGE(Registro_Triage!E2:N2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Riesgo Inicial" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Riesgo Inicial" dataDxfId="3">
       <calculatedColumnFormula>IF(
 OR(H2="",I2="",J2=""),
 "",
@@ -1274,10 +461,10 @@
 )
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2AA4B4F3-ACC1-459E-87D6-8904E584A3B4}" name="ALERTA_O2" dataDxfId="4">
+    <tableColumn id="8" xr3:uid="{2AA4B4F3-ACC1-459E-87D6-8904E584A3B4}" name="ALERTA_O2" dataDxfId="2">
       <calculatedColumnFormula>IF(OR(Registro_Triage!N2="", NOT(ISNUMBER(Registro_Triage!N2*1))), "", IF(Registro_Triage!N2*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F79C9761-E006-46E6-A449-D718B8CB107E}" name="ALERTA_Presion" dataDxfId="6">
+    <tableColumn id="9" xr3:uid="{F79C9761-E006-46E6-A449-D718B8CB107E}" name="ALERTA_Presion" dataDxfId="1">
       <calculatedColumnFormula>IF(
 OR(
 E2 &gt; VLOOKUP("Presión Sistólica Normal",Referencias!A:C,3,FALSE),
@@ -1287,7 +474,7 @@
 0
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1C56DDB5-870B-4F3E-8434-528DCB879C08}" name="ALERTA_IMC" dataDxfId="5">
+    <tableColumn id="10" xr3:uid="{1C56DDB5-870B-4F3E-8434-528DCB879C08}" name="ALERTA_IMC" dataDxfId="0">
       <calculatedColumnFormula>IF(
 OR(
 C2 &lt; VLOOKUP("IMC Normal",Referencias!A:C,2,FALSE),
@@ -2082,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
@@ -2670,21 +1857,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="ALTO">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="ALTO">
       <formula>NOT(ISERROR(SEARCH("ALTO",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="MEDIO">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="MEDIO">
       <formula>NOT(ISERROR(SEARCH("MEDIO",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="BAJO">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="BAJO">
       <formula>NOT(ISERROR(SEARCH("BAJO",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="NORMAL">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="NORMAL">
       <formula>NOT(ISERROR(SEARCH("NORMAL",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ALTO">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="ALTO">
       <formula>NOT(ISERROR(SEARCH("ALTO",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel/Triage_y_Evaluacion_Basica_Enfermeria.xlsx
+++ b/Excel/Triage_y_Evaluacion_Basica_Enfermeria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Hernán\Desktop\Administracion HernanMayol\Python_ISSUNNE\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487ACF8A-A6B1-44FB-867C-EF7A407A6785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54858184-5DEF-49E3-9DB8-009537804998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11070" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registro_Triage" sheetId="1" r:id="rId1"/>
@@ -1269,10 +1269,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel/Triage_y_Evaluacion_Basica_Enfermeria.xlsx
+++ b/Excel/Triage_y_Evaluacion_Basica_Enfermeria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Hernán\Desktop\Administracion HernanMayol\Python_ISSUNNE\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54858184-5DEF-49E3-9DB8-009537804998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7603E1FB-627A-4615-BE1A-5F2489215A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11070" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registro_Triage" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>Fecha</t>
   </si>
@@ -169,6 +169,21 @@
   </si>
   <si>
     <t>Alta temperatura</t>
+  </si>
+  <si>
+    <t>Paciente Bajo Riesgo</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>ALERTA_Cintura</t>
   </si>
 </sst>
 </file>
@@ -241,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -254,7 +269,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -266,41 +280,121 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="45">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -314,20 +408,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -345,9 +428,69 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -401,88 +544,174 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="dimg_uVdeabSFINqG5OUP89jZ2A0_11" descr="▷ Perímetro abdominal y riesgo de muerte【Artículo 2021】">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D60AFA9B-F295-C4EF-F89D-0B8A278240E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1714500"/>
+          <a:ext cx="3467100" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla_Triage" displayName="Tabla_Triage" ref="A1:O10">
-  <autoFilter ref="A1:O10" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla_Triage" displayName="Tabla_Triage" ref="A1:P11">
+  <autoFilter ref="A1:P11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O4">
     <sortCondition ref="A1:A4"/>
   </sortState>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Fecha" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hora" dataDxfId="26"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Fecha" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hora" dataDxfId="43"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ID Paciente"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Nombre y Apellido" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Nombre y Apellido" dataDxfId="42"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Peso (kg)"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Talla (m)" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Perímetro Cintura (cm)" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Presión Sistólica 1" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Presión Sistólica 2" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Presión Diastólica 1" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Presión Diastólica 2" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Frecuencia Cardíaca" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Glucemia (mg/dl)" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Saturación O2 (%)" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Observaciones/Comentarios" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Talla (m)" dataDxfId="41"/>
+    <tableColumn id="19" xr3:uid="{A3612F64-308B-47A4-B163-BDE1CA9C2210}" name="Sexo" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Perímetro Cintura (cm)" dataDxfId="40"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Presión Sistólica 1" dataDxfId="39"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Presión Sistólica 2" dataDxfId="38"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Presión Diastólica 1" dataDxfId="37"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Presión Diastólica 2" dataDxfId="36"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Frecuencia Cardíaca" dataDxfId="35"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Glucemia (mg/dl)" dataDxfId="34"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Saturación O2 (%)" dataDxfId="33"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Observaciones/Comentarios" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla_Calculos" displayName="Tabla_Calculos" ref="A1:J10" totalsRowShown="0">
-  <autoFilter ref="A1:J10" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID Paciente" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla_Calculos" displayName="Tabla_Calculos" ref="A1:L11" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="A1:L11" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID Paciente" dataDxfId="31">
       <calculatedColumnFormula>Tabla_Triage[[#This Row],[ID Paciente]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Fecha" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Fecha" dataDxfId="30">
       <calculatedColumnFormula>Tabla_Triage[[#This Row],[Fecha]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="IMC" dataDxfId="7">
+    <tableColumn id="13" xr3:uid="{5B10D3AB-37DC-4AC1-B3E1-411DF10FD1D5}" name="Sexo" dataDxfId="0">
+      <calculatedColumnFormula>Tabla_Triage[[#This Row],[Sexo]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="IMC" dataDxfId="29">
       <calculatedColumnFormula>IFERROR(Registro_Triage!E2/(Registro_Triage!F2^2),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Clasificación IMC" dataDxfId="6">
-      <calculatedColumnFormula>IF(C2="","",IF(C2&lt;18.5,"Bajo peso",IF(C2&lt;25,"Normal",IF(C2&lt;30,"Sobrepeso","Obesidad"))))</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Clasificación IMC" dataDxfId="28">
+      <calculatedColumnFormula>IF(D2="","",IF(D2&lt;18.5,"Bajo peso",IF(D2&lt;25,"Normal",IF(D2&lt;30,"Sobrepeso","Obesidad"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Presión Sistólica Promedio" dataDxfId="5">
-      <calculatedColumnFormula>IF(COUNT(Registro_Triage!E2:N2)=0,"",AVERAGE(Registro_Triage!E2:N2))</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Presión Sistólica Promedio" dataDxfId="27">
+      <calculatedColumnFormula>IF(COUNT(Registro_Triage!I2:J2)=0,"",AVERAGE(Registro_Triage!I2:J2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Presión Diastólica Promedio" dataDxfId="4">
-      <calculatedColumnFormula>IF(COUNT(Registro_Triage!E2:N2)=0,"",AVERAGE(Registro_Triage!E2:N2))</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Presión Diastólica Promedio" dataDxfId="26">
+      <calculatedColumnFormula>IF(COUNT(Registro_Triage!K2:L2)=0,"",AVERAGE(Registro_Triage!K2:L2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Riesgo Inicial" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Riesgo Inicial" dataDxfId="25">
       <calculatedColumnFormula>IF(
-OR(H2="",I2="",J2=""),
+OR(I2="",J2="",K2=""),
 "",
 IF(
-OR(H2=1,I2=1),
+OR(I2=1,J2=1),
 "ALTO",
-IF(J2=1,"MEDIO","BAJO")
+IF(K2=1,"MEDIO","BAJO")
 )
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2AA4B4F3-ACC1-459E-87D6-8904E584A3B4}" name="ALERTA_O2" dataDxfId="2">
-      <calculatedColumnFormula>IF(OR(Registro_Triage!N2="", NOT(ISNUMBER(Registro_Triage!N2*1))), "", IF(Registro_Triage!N2*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{2AA4B4F3-ACC1-459E-87D6-8904E584A3B4}" name="ALERTA_O2" dataDxfId="24">
+      <calculatedColumnFormula>IF(OR(Registro_Triage!O2="", NOT(ISNUMBER(Registro_Triage!O2*1))), "", IF(Registro_Triage!O2*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F79C9761-E006-46E6-A449-D718B8CB107E}" name="ALERTA_Presion" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{F79C9761-E006-46E6-A449-D718B8CB107E}" name="ALERTA_Presion" dataDxfId="23">
       <calculatedColumnFormula>IF(
 OR(
-E2 &gt; VLOOKUP("Presión Sistólica Normal",Referencias!A:C,3,FALSE),
-F2 &gt; VLOOKUP("Presión Diastólica Normal",Referencias!A:C,3,FALSE)
+F2 &gt; VLOOKUP("Presión Sistólica Normal",Referencias!A:C,3,FALSE),
+G2 &gt; VLOOKUP("Presión Diastólica Normal",Referencias!A:C,3,FALSE)
 ),
 1,
 0
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1C56DDB5-870B-4F3E-8434-528DCB879C08}" name="ALERTA_IMC" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{1C56DDB5-870B-4F3E-8434-528DCB879C08}" name="ALERTA_IMC" dataDxfId="22">
       <calculatedColumnFormula>IF(
 OR(
-C2 &lt; VLOOKUP("IMC Normal",Referencias!A:C,2,FALSE),
-C2 &gt; VLOOKUP("IMC Normal",Referencias!A:C,3,FALSE)
+D2 &lt; VLOOKUP("IMC Normal",Referencias!A:C,2,FALSE),
+D2 &gt; VLOOKUP("IMC Normal",Referencias!A:C,3,FALSE)
 ),
 1,
 0
 )</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{5491193D-3D2C-4BB1-9F1D-AF9F5FC6BE37}" name="ALERTA_Cintura" dataDxfId="9">
+      <calculatedColumnFormula>IF(
+OR(Registro_Triage!G2="",Registro_Triage!H2=""),
+"",
+IF(
+OR(Registro_Triage!G2="M",Registro_Triage!G2="Masculino"),
+IF(Registro_Triage!H2&lt;0.94,"Normal",
+IF(Registro_Triage!H2&lt;1.02,"Riesgo aumentado","Alto riesgo")),
+IF(
+OR(Registro_Triage!G2="F",Registro_Triage!G2="Femenino"),
+IF(Registro_Triage!H2&lt;0.8,"Normal",
+IF(Registro_Triage!H2&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
+""
+)
+))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -774,11 +1003,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,21 +1015,23 @@
     <col min="1" max="1" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11" style="12" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" style="15" customWidth="1"/>
-    <col min="12" max="12" width="26.28515625" style="15" customWidth="1"/>
-    <col min="13" max="13" width="19" style="15" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="28.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="14" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" style="14" customWidth="1"/>
+    <col min="15" max="15" width="19" style="14" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" style="11" customWidth="1"/>
+    <col min="17" max="17" width="28.85546875" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -810,44 +1041,48 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>46024</v>
       </c>
@@ -863,35 +1098,40 @@
       <c r="E2">
         <v>80</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>1.84</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="11">
         <v>0.8</v>
       </c>
-      <c r="H2" s="15">
+      <c r="I2" s="14">
         <v>95</v>
       </c>
-      <c r="I2" s="15">
+      <c r="J2" s="14">
         <v>100</v>
       </c>
-      <c r="J2" s="15">
+      <c r="K2" s="14">
         <v>70</v>
       </c>
-      <c r="K2" s="15">
+      <c r="L2" s="14">
         <v>75</v>
       </c>
-      <c r="L2" s="15">
+      <c r="M2" s="14">
         <v>80</v>
       </c>
-      <c r="M2" s="15">
+      <c r="N2" s="14">
         <v>75</v>
       </c>
-      <c r="N2" s="12">
+      <c r="O2" s="11">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="9"/>
+      <c r="Q2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>46024</v>
       </c>
@@ -907,38 +1147,42 @@
       <c r="E3">
         <v>84</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>1.81</v>
       </c>
-      <c r="G3" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="H3" s="15">
+      <c r="G3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="I3" s="14">
         <v>83</v>
       </c>
-      <c r="I3" s="15">
+      <c r="J3" s="14">
         <v>79</v>
       </c>
-      <c r="J3" s="15">
+      <c r="K3" s="14">
         <v>94</v>
       </c>
-      <c r="K3" s="15">
+      <c r="L3" s="14">
         <v>90</v>
       </c>
-      <c r="L3" s="15">
+      <c r="M3" s="14">
         <v>95</v>
       </c>
-      <c r="M3" s="15">
+      <c r="N3" s="14">
         <v>79</v>
       </c>
-      <c r="N3" s="12">
+      <c r="O3" s="11">
         <v>99</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>46025</v>
       </c>
@@ -954,35 +1198,39 @@
       <c r="E4">
         <v>90</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>1.74</v>
       </c>
-      <c r="G4" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="H4" s="15">
+      <c r="G4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="I4" s="14">
         <v>85</v>
       </c>
-      <c r="I4" s="15">
+      <c r="J4" s="14">
         <v>70</v>
       </c>
-      <c r="J4" s="15">
+      <c r="K4" s="14">
         <v>70</v>
       </c>
-      <c r="K4" s="15">
+      <c r="L4" s="14">
         <v>85</v>
       </c>
-      <c r="L4" s="15">
+      <c r="M4" s="14">
         <v>90</v>
       </c>
-      <c r="N4" s="12">
+      <c r="O4" s="11">
         <v>95</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>46025</v>
       </c>
@@ -998,32 +1246,37 @@
       <c r="E5">
         <v>70</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>1.75</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="11">
         <v>0.7</v>
       </c>
-      <c r="H5" s="15">
+      <c r="I5" s="14">
         <v>89</v>
       </c>
-      <c r="I5" s="15">
+      <c r="J5" s="14">
         <v>95</v>
       </c>
-      <c r="J5" s="15">
+      <c r="K5" s="14">
         <v>85</v>
       </c>
-      <c r="K5" s="15">
+      <c r="L5" s="14">
         <v>98</v>
       </c>
-      <c r="L5" s="15">
+      <c r="M5" s="14">
         <v>97</v>
       </c>
-      <c r="N5" s="12">
+      <c r="O5" s="11">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="9"/>
+      <c r="Q5"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>46027</v>
       </c>
@@ -1039,38 +1292,42 @@
       <c r="E6">
         <v>80</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>1.81</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="11">
         <v>0.75</v>
       </c>
-      <c r="H6" s="15">
+      <c r="I6" s="14">
         <v>120</v>
       </c>
-      <c r="I6" s="15">
+      <c r="J6" s="14">
         <v>120</v>
       </c>
-      <c r="J6" s="15">
+      <c r="K6" s="14">
         <v>80</v>
       </c>
-      <c r="K6" s="15">
+      <c r="L6" s="14">
         <v>80</v>
       </c>
-      <c r="L6" s="15">
+      <c r="M6" s="14">
         <v>90</v>
       </c>
-      <c r="M6" s="15">
+      <c r="N6" s="14">
         <v>75</v>
       </c>
-      <c r="N6" s="12">
+      <c r="O6" s="11">
         <v>98</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="P6" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>46028</v>
       </c>
@@ -1086,35 +1343,40 @@
       <c r="E7">
         <v>72</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>1.75</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="11">
         <v>0.85</v>
       </c>
-      <c r="H7" s="15">
+      <c r="I7" s="14">
         <v>118</v>
       </c>
-      <c r="I7" s="15">
+      <c r="J7" s="14">
         <v>120</v>
       </c>
-      <c r="J7" s="15">
+      <c r="K7" s="14">
         <v>78</v>
       </c>
-      <c r="K7" s="15">
+      <c r="L7" s="14">
         <v>80</v>
       </c>
-      <c r="L7" s="15">
+      <c r="M7" s="14">
         <v>72</v>
       </c>
-      <c r="M7" s="15">
+      <c r="N7" s="14">
         <v>95</v>
       </c>
-      <c r="N7" s="12">
+      <c r="O7" s="11">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="9"/>
+      <c r="Q7"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>46028</v>
       </c>
@@ -1130,38 +1392,42 @@
       <c r="E8">
         <v>82</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>1.65</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="11">
         <v>0.95</v>
       </c>
-      <c r="H8" s="15">
+      <c r="I8" s="14">
         <v>138</v>
       </c>
-      <c r="I8" s="15">
+      <c r="J8" s="14">
         <v>142</v>
       </c>
-      <c r="J8" s="15">
+      <c r="K8" s="14">
         <v>88</v>
       </c>
-      <c r="K8" s="15">
+      <c r="L8" s="14">
         <v>90</v>
       </c>
-      <c r="L8" s="15">
+      <c r="M8" s="14">
         <v>80</v>
       </c>
-      <c r="M8" s="15">
+      <c r="N8" s="14">
         <v>110</v>
       </c>
-      <c r="N8" s="12">
+      <c r="O8" s="11">
         <v>95</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="P8" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q8"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>46029</v>
       </c>
@@ -1177,38 +1443,42 @@
       <c r="E9">
         <v>95</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>1.7</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="11">
         <v>1.05</v>
       </c>
-      <c r="H9" s="15">
+      <c r="I9" s="14">
         <v>165</v>
       </c>
-      <c r="I9" s="15">
+      <c r="J9" s="14">
         <v>170</v>
       </c>
-      <c r="J9" s="15">
+      <c r="K9" s="14">
         <v>102</v>
       </c>
-      <c r="K9" s="15">
+      <c r="L9" s="14">
         <v>104</v>
       </c>
-      <c r="L9" s="15">
+      <c r="M9" s="14">
         <v>96</v>
       </c>
-      <c r="M9" s="15">
+      <c r="N9" s="14">
         <v>160</v>
       </c>
-      <c r="N9" s="12">
+      <c r="O9" s="11">
         <v>89</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="P9" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q9"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45664</v>
       </c>
@@ -1224,36 +1494,89 @@
       <c r="E10">
         <v>85</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>1.7</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="11">
         <v>0.85</v>
       </c>
-      <c r="H10" s="15">
+      <c r="I10" s="14">
         <v>95</v>
       </c>
-      <c r="I10" s="15">
+      <c r="J10" s="14">
         <v>115</v>
       </c>
-      <c r="J10" s="15">
+      <c r="K10" s="14">
         <v>65</v>
       </c>
-      <c r="K10" s="15">
+      <c r="L10" s="14">
         <v>75</v>
       </c>
-      <c r="L10" s="15">
+      <c r="M10" s="14">
         <v>80</v>
       </c>
-      <c r="M10" s="15">
+      <c r="N10" s="14">
         <v>110</v>
       </c>
-      <c r="N10" s="12">
+      <c r="O10" s="11">
         <v>94</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="P10" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="Q10"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>45664</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="C11">
+        <v>39852147</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <v>60</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1.67</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="I11" s="14">
+        <v>112</v>
+      </c>
+      <c r="J11" s="14">
+        <v>115</v>
+      </c>
+      <c r="K11" s="14">
+        <v>72</v>
+      </c>
+      <c r="L11" s="14">
+        <v>74</v>
+      </c>
+      <c r="M11" s="14">
+        <v>80</v>
+      </c>
+      <c r="N11" s="14">
+        <v>75</v>
+      </c>
+      <c r="O11" s="11">
+        <v>98</v>
+      </c>
+      <c r="P11" s="9"/>
+      <c r="Q11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1267,61 +1590,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="28" style="12" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>Tabla_Triage[[#This Row],[ID Paciente]]</f>
         <v>42603154</v>
@@ -1330,62 +1661,83 @@
         <f>Tabla_Triage[[#This Row],[Fecha]]</f>
         <v>46024</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="1" t="str">
+        <f>Tabla_Triage[[#This Row],[Sexo]]</f>
+        <v>M</v>
+      </c>
+      <c r="D2" s="8">
         <f>IFERROR(Registro_Triage!E2/(Registro_Triage!F2^2),"")</f>
         <v>23.629489603024574</v>
       </c>
-      <c r="D2" s="9" t="str">
-        <f>IF(C2="","",IF(C2&lt;18.5,"Bajo peso",IF(C2&lt;25,"Normal",IF(C2&lt;30,"Sobrepeso","Obesidad"))))</f>
+      <c r="E2" s="9" t="str">
+        <f>IF(D2="","",IF(D2&lt;18.5,"Bajo peso",IF(D2&lt;25,"Normal",IF(D2&lt;30,"Sobrepeso","Obesidad"))))</f>
         <v>Normal</v>
       </c>
-      <c r="E2" s="12">
-        <f>IF(COUNT(Registro_Triage!E2:N2)=0,"",AVERAGE(Registro_Triage!E2:N2))</f>
-        <v>67.463999999999999</v>
-      </c>
-      <c r="F2" s="12">
-        <f>IF(COUNT(Registro_Triage!E2:N2)=0,"",AVERAGE(Registro_Triage!E2:N2))</f>
-        <v>67.463999999999999</v>
-      </c>
-      <c r="G2" s="9" t="str">
-        <f>IF(
-OR(H2="",I2="",J2=""),
+      <c r="F2" s="11">
+        <f>IF(COUNT(Registro_Triage!I2:J2)=0,"",AVERAGE(Registro_Triage!I2:J2))</f>
+        <v>97.5</v>
+      </c>
+      <c r="G2" s="11">
+        <f>IF(COUNT(Registro_Triage!K2:L2)=0,"",AVERAGE(Registro_Triage!K2:L2))</f>
+        <v>72.5</v>
+      </c>
+      <c r="H2" s="9" t="str">
+        <f>IF(
+OR(I2="",J2="",K2=""),
 "",
 IF(
-OR(H2=1,I2=1),
+OR(I2=1,J2=1),
 "ALTO",
-IF(J2=1,"MEDIO","BAJO")
+IF(K2=1,"MEDIO","BAJO")
 )
 )</f>
         <v>BAJO</v>
       </c>
-      <c r="H2" t="str">
-        <f>IF(OR(Registro_Triage!N2="", NOT(ISNUMBER(Registro_Triage!N2*1))), "", IF(Registro_Triage!N2*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
+      <c r="I2" s="9" t="str">
+        <f>IF(OR(Registro_Triage!O2="", NOT(ISNUMBER(Registro_Triage!O2*1))), "", IF(Registro_Triage!O2*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
         <v>NORMAL</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <f>IF(
 OR(
-E2 &gt; VLOOKUP("Presión Sistólica Normal",Referencias!A:C,3,FALSE),
-F2 &gt; VLOOKUP("Presión Diastólica Normal",Referencias!A:C,3,FALSE)
+F2 &gt; VLOOKUP("Presión Sistólica Normal",Referencias!A:C,3,FALSE),
+G2 &gt; VLOOKUP("Presión Diastólica Normal",Referencias!A:C,3,FALSE)
 ),
 1,
 0
 )</f>
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <f>IF(
 OR(
-C2 &lt; VLOOKUP("IMC Normal",Referencias!A:C,2,FALSE),
-C2 &gt; VLOOKUP("IMC Normal",Referencias!A:C,3,FALSE)
+D2 &lt; VLOOKUP("IMC Normal",Referencias!A:C,2,FALSE),
+D2 &gt; VLOOKUP("IMC Normal",Referencias!A:C,3,FALSE)
 ),
 1,
 0
 )</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2" t="str">
+        <f>IF(
+OR(Registro_Triage!G2="",Registro_Triage!H2=""),
+"",
+IF(
+OR(Registro_Triage!G2="M",Registro_Triage!G2="Masculino"),
+IF(Registro_Triage!H2&lt;0.94,"Normal",
+IF(Registro_Triage!H2&lt;1.02,"Riesgo aumentado","Alto riesgo")),
+IF(
+OR(Registro_Triage!G2="F",Registro_Triage!G2="Femenino"),
+IF(Registro_Triage!H2&lt;0.8,"Normal",
+IF(Registro_Triage!H2&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
+""
+)
+))</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>Tabla_Triage[[#This Row],[ID Paciente]]</f>
         <v>32634451</v>
@@ -1394,62 +1746,83 @@
         <f>Tabla_Triage[[#This Row],[Fecha]]</f>
         <v>46024</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="1" t="str">
+        <f>Tabla_Triage[[#This Row],[Sexo]]</f>
+        <v>M</v>
+      </c>
+      <c r="D3" s="8">
         <f>IFERROR(Registro_Triage!E3/(Registro_Triage!F3^2),"")</f>
         <v>25.640242971826257</v>
       </c>
-      <c r="D3" s="9" t="str">
-        <f t="shared" ref="D3:D6" si="0">IF(C3="","",IF(C3&lt;18.5,"Bajo peso",IF(C3&lt;25,"Normal",IF(C3&lt;30,"Sobrepeso","Obesidad"))))</f>
+      <c r="E3" s="9" t="str">
+        <f t="shared" ref="E3:E6" si="0">IF(D3="","",IF(D3&lt;18.5,"Bajo peso",IF(D3&lt;25,"Normal",IF(D3&lt;30,"Sobrepeso","Obesidad"))))</f>
         <v>Sobrepeso</v>
       </c>
-      <c r="E3" s="12">
-        <f>IF(COUNT(Registro_Triage!E3:N3)=0,"",AVERAGE(Registro_Triage!E3:N3))</f>
-        <v>70.555999999999997</v>
-      </c>
-      <c r="F3" s="12">
-        <f>IF(COUNT(Registro_Triage!E3:N3)=0,"",AVERAGE(Registro_Triage!E3:N3))</f>
-        <v>70.555999999999997</v>
-      </c>
-      <c r="G3" s="9" t="str">
-        <f t="shared" ref="G3:G9" si="1">IF(
-OR(H3="",I3="",J3=""),
+      <c r="F3" s="11">
+        <f>IF(COUNT(Registro_Triage!I3:J3)=0,"",AVERAGE(Registro_Triage!I3:J3))</f>
+        <v>81</v>
+      </c>
+      <c r="G3" s="11">
+        <f>IF(COUNT(Registro_Triage!K3:L3)=0,"",AVERAGE(Registro_Triage!K3:L3))</f>
+        <v>92</v>
+      </c>
+      <c r="H3" s="9" t="str">
+        <f>IF(
+OR(I3="",J3="",K3=""),
 "",
 IF(
-OR(H3=1,I3=1),
+OR(I3=1,J3=1),
 "ALTO",
-IF(J3=1,"MEDIO","BAJO")
+IF(K3=1,"MEDIO","BAJO")
 )
 )</f>
-        <v>MEDIO</v>
-      </c>
-      <c r="H3" t="str">
-        <f>IF(OR(Registro_Triage!N3="", NOT(ISNUMBER(Registro_Triage!N3*1))), "", IF(Registro_Triage!N3*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
+        <v>ALTO</v>
+      </c>
+      <c r="I3" s="9" t="str">
+        <f>IF(OR(Registro_Triage!O3="", NOT(ISNUMBER(Registro_Triage!O3*1))), "", IF(Registro_Triage!O3*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
         <v>NORMAL</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <f>IF(
 OR(
-E3 &gt; VLOOKUP("Presión Sistólica Normal",Referencias!A:C,3,FALSE),
-F3 &gt; VLOOKUP("Presión Diastólica Normal",Referencias!A:C,3,FALSE)
+F3 &gt; VLOOKUP("Presión Sistólica Normal",Referencias!A:C,3,FALSE),
+G3 &gt; VLOOKUP("Presión Diastólica Normal",Referencias!A:C,3,FALSE)
 ),
 1,
 0
 )</f>
-        <v>0</v>
-      </c>
-      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
         <f>IF(
 OR(
-C3 &lt; VLOOKUP("IMC Normal",Referencias!A:C,2,FALSE),
-C3 &gt; VLOOKUP("IMC Normal",Referencias!A:C,3,FALSE)
+D3 &lt; VLOOKUP("IMC Normal",Referencias!A:C,2,FALSE),
+D3 &gt; VLOOKUP("IMC Normal",Referencias!A:C,3,FALSE)
 ),
 1,
 0
 )</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3" t="str">
+        <f>IF(
+OR(Registro_Triage!G3="",Registro_Triage!H3=""),
+"",
+IF(
+OR(Registro_Triage!G3="M",Registro_Triage!G3="Masculino"),
+IF(Registro_Triage!H3&lt;0.94,"Normal",
+IF(Registro_Triage!H3&lt;1.02,"Riesgo aumentado","Alto riesgo")),
+IF(
+OR(Registro_Triage!G3="F",Registro_Triage!G3="Femenino"),
+IF(Registro_Triage!H3&lt;0.8,"Normal",
+IF(Registro_Triage!H3&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
+""
+)
+))</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>Tabla_Triage[[#This Row],[ID Paciente]]</f>
         <v>44451324</v>
@@ -1458,54 +1831,83 @@
         <f>Tabla_Triage[[#This Row],[Fecha]]</f>
         <v>46025</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="1" t="str">
+        <f>Tabla_Triage[[#This Row],[Sexo]]</f>
+        <v>M</v>
+      </c>
+      <c r="D4" s="8">
         <f>IFERROR(Registro_Triage!E4/(Registro_Triage!F4^2),"")</f>
         <v>29.726516052318669</v>
       </c>
-      <c r="D4" s="9" t="str">
+      <c r="E4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Sobrepeso</v>
       </c>
-      <c r="E4" s="12">
-        <f>IF(COUNT(Registro_Triage!E4:N4)=0,"",AVERAGE(Registro_Triage!E4:N4))</f>
-        <v>65.271111111111111</v>
-      </c>
-      <c r="F4" s="12">
-        <f>IF(COUNT(Registro_Triage!E4:N4)=0,"",AVERAGE(Registro_Triage!E4:N4))</f>
-        <v>65.271111111111111</v>
-      </c>
-      <c r="G4" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="F4" s="11">
+        <f>IF(COUNT(Registro_Triage!I4:J4)=0,"",AVERAGE(Registro_Triage!I4:J4))</f>
+        <v>77.5</v>
+      </c>
+      <c r="G4" s="11">
+        <f>IF(COUNT(Registro_Triage!K4:L4)=0,"",AVERAGE(Registro_Triage!K4:L4))</f>
+        <v>77.5</v>
+      </c>
+      <c r="H4" s="9" t="str">
+        <f>IF(
+OR(I4="",J4="",K4=""),
+"",
+IF(
+OR(I4=1,J4=1),
+"ALTO",
+IF(K4=1,"MEDIO","BAJO")
+)
+)</f>
         <v>MEDIO</v>
       </c>
-      <c r="H4" t="str">
-        <f>IF(OR(Registro_Triage!N4="", NOT(ISNUMBER(Registro_Triage!N4*1))), "", IF(Registro_Triage!N4*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
+      <c r="I4" s="9" t="str">
+        <f>IF(OR(Registro_Triage!O4="", NOT(ISNUMBER(Registro_Triage!O4*1))), "", IF(Registro_Triage!O4*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
         <v>NORMAL</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f>IF(
 OR(
-E4 &gt; VLOOKUP("Presión Sistólica Normal",Referencias!A:C,3,FALSE),
-F4 &gt; VLOOKUP("Presión Diastólica Normal",Referencias!A:C,3,FALSE)
+F4 &gt; VLOOKUP("Presión Sistólica Normal",Referencias!A:C,3,FALSE),
+G4 &gt; VLOOKUP("Presión Diastólica Normal",Referencias!A:C,3,FALSE)
 ),
 1,
 0
 )</f>
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f>IF(
 OR(
-C4 &lt; VLOOKUP("IMC Normal",Referencias!A:C,2,FALSE),
-C4 &gt; VLOOKUP("IMC Normal",Referencias!A:C,3,FALSE)
+D4 &lt; VLOOKUP("IMC Normal",Referencias!A:C,2,FALSE),
+D4 &gt; VLOOKUP("IMC Normal",Referencias!A:C,3,FALSE)
 ),
 1,
 0
 )</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4" t="str">
+        <f>IF(
+OR(Registro_Triage!G4="",Registro_Triage!H4=""),
+"",
+IF(
+OR(Registro_Triage!G4="M",Registro_Triage!G4="Masculino"),
+IF(Registro_Triage!H4&lt;0.94,"Normal",
+IF(Registro_Triage!H4&lt;1.02,"Riesgo aumentado","Alto riesgo")),
+IF(
+OR(Registro_Triage!G4="F",Registro_Triage!G4="Femenino"),
+IF(Registro_Triage!H4&lt;0.8,"Normal",
+IF(Registro_Triage!H4&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
+""
+)
+))</f>
+        <v>Riesgo aumentado</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>Tabla_Triage[[#This Row],[ID Paciente]]</f>
         <v>42451324</v>
@@ -1514,54 +1916,83 @@
         <f>Tabla_Triage[[#This Row],[Fecha]]</f>
         <v>46025</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="1" t="str">
+        <f>Tabla_Triage[[#This Row],[Sexo]]</f>
+        <v>F</v>
+      </c>
+      <c r="D5" s="8">
         <f>IFERROR(Registro_Triage!E5/(Registro_Triage!F5^2),"")</f>
         <v>22.857142857142858</v>
       </c>
-      <c r="D5" s="9" t="str">
+      <c r="E5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Normal</v>
       </c>
-      <c r="E5" s="12">
-        <f>IF(COUNT(Registro_Triage!E5:N5)=0,"",AVERAGE(Registro_Triage!E5:N5))</f>
-        <v>70.716666666666669</v>
-      </c>
-      <c r="F5" s="12">
-        <f>IF(COUNT(Registro_Triage!E5:N5)=0,"",AVERAGE(Registro_Triage!E5:N5))</f>
-        <v>70.716666666666669</v>
-      </c>
-      <c r="G5" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>BAJO</v>
-      </c>
-      <c r="H5" t="str">
-        <f>IF(OR(Registro_Triage!N5="", NOT(ISNUMBER(Registro_Triage!N5*1))), "", IF(Registro_Triage!N5*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
+      <c r="F5" s="11">
+        <f>IF(COUNT(Registro_Triage!I5:J5)=0,"",AVERAGE(Registro_Triage!I5:J5))</f>
+        <v>92</v>
+      </c>
+      <c r="G5" s="11">
+        <f>IF(COUNT(Registro_Triage!K5:L5)=0,"",AVERAGE(Registro_Triage!K5:L5))</f>
+        <v>91.5</v>
+      </c>
+      <c r="H5" s="9" t="str">
+        <f>IF(
+OR(I5="",J5="",K5=""),
+"",
+IF(
+OR(I5=1,J5=1),
+"ALTO",
+IF(K5=1,"MEDIO","BAJO")
+)
+)</f>
+        <v>ALTO</v>
+      </c>
+      <c r="I5" s="9" t="str">
+        <f>IF(OR(Registro_Triage!O5="", NOT(ISNUMBER(Registro_Triage!O5*1))), "", IF(Registro_Triage!O5*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
         <v>NORMAL</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f>IF(
 OR(
-E5 &gt; VLOOKUP("Presión Sistólica Normal",Referencias!A:C,3,FALSE),
-F5 &gt; VLOOKUP("Presión Diastólica Normal",Referencias!A:C,3,FALSE)
+F5 &gt; VLOOKUP("Presión Sistólica Normal",Referencias!A:C,3,FALSE),
+G5 &gt; VLOOKUP("Presión Diastólica Normal",Referencias!A:C,3,FALSE)
 ),
 1,
 0
 )</f>
-        <v>0</v>
-      </c>
-      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <f>IF(
 OR(
-C5 &lt; VLOOKUP("IMC Normal",Referencias!A:C,2,FALSE),
-C5 &gt; VLOOKUP("IMC Normal",Referencias!A:C,3,FALSE)
+D5 &lt; VLOOKUP("IMC Normal",Referencias!A:C,2,FALSE),
+D5 &gt; VLOOKUP("IMC Normal",Referencias!A:C,3,FALSE)
 ),
 1,
 0
 )</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5" t="str">
+        <f>IF(
+OR(Registro_Triage!G5="",Registro_Triage!H5=""),
+"",
+IF(
+OR(Registro_Triage!G5="M",Registro_Triage!G5="Masculino"),
+IF(Registro_Triage!H5&lt;0.94,"Normal",
+IF(Registro_Triage!H5&lt;1.02,"Riesgo aumentado","Alto riesgo")),
+IF(
+OR(Registro_Triage!G5="F",Registro_Triage!G5="Femenino"),
+IF(Registro_Triage!H5&lt;0.8,"Normal",
+IF(Registro_Triage!H5&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
+""
+)
+))</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>Tabla_Triage[[#This Row],[ID Paciente]]</f>
         <v>32461724</v>
@@ -1570,54 +2001,83 @@
         <f>Tabla_Triage[[#This Row],[Fecha]]</f>
         <v>46027</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="1" t="str">
+        <f>Tabla_Triage[[#This Row],[Sexo]]</f>
+        <v>M</v>
+      </c>
+      <c r="D6" s="8">
         <f>IFERROR(Registro_Triage!E6/(Registro_Triage!F6^2),"")</f>
         <v>24.419279020786909</v>
       </c>
-      <c r="D6" s="9" t="str">
+      <c r="E6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Normal</v>
       </c>
-      <c r="E6" s="12">
-        <f>IF(COUNT(Registro_Triage!E6:N6)=0,"",AVERAGE(Registro_Triage!E6:N6))</f>
-        <v>74.555999999999997</v>
-      </c>
-      <c r="F6" s="12">
-        <f>IF(COUNT(Registro_Triage!E6:N6)=0,"",AVERAGE(Registro_Triage!E6:N6))</f>
-        <v>74.555999999999997</v>
-      </c>
-      <c r="G6" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="F6" s="11">
+        <f>IF(COUNT(Registro_Triage!I6:J6)=0,"",AVERAGE(Registro_Triage!I6:J6))</f>
+        <v>120</v>
+      </c>
+      <c r="G6" s="11">
+        <f>IF(COUNT(Registro_Triage!K6:L6)=0,"",AVERAGE(Registro_Triage!K6:L6))</f>
+        <v>80</v>
+      </c>
+      <c r="H6" s="9" t="str">
+        <f>IF(
+OR(I6="",J6="",K6=""),
+"",
+IF(
+OR(I6=1,J6=1),
+"ALTO",
+IF(K6=1,"MEDIO","BAJO")
+)
+)</f>
         <v>BAJO</v>
       </c>
-      <c r="H6" t="str">
-        <f>IF(OR(Registro_Triage!N6="", NOT(ISNUMBER(Registro_Triage!N6*1))), "", IF(Registro_Triage!N6*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
+      <c r="I6" s="9" t="str">
+        <f>IF(OR(Registro_Triage!O6="", NOT(ISNUMBER(Registro_Triage!O6*1))), "", IF(Registro_Triage!O6*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
         <v>NORMAL</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f>IF(
 OR(
-E6 &gt; VLOOKUP("Presión Sistólica Normal",Referencias!A:C,3,FALSE),
-F6 &gt; VLOOKUP("Presión Diastólica Normal",Referencias!A:C,3,FALSE)
+F6 &gt; VLOOKUP("Presión Sistólica Normal",Referencias!A:C,3,FALSE),
+G6 &gt; VLOOKUP("Presión Diastólica Normal",Referencias!A:C,3,FALSE)
 ),
 1,
 0
 )</f>
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f>IF(
 OR(
-C6 &lt; VLOOKUP("IMC Normal",Referencias!A:C,2,FALSE),
-C6 &gt; VLOOKUP("IMC Normal",Referencias!A:C,3,FALSE)
+D6 &lt; VLOOKUP("IMC Normal",Referencias!A:C,2,FALSE),
+D6 &gt; VLOOKUP("IMC Normal",Referencias!A:C,3,FALSE)
 ),
 1,
 0
 )</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6" t="str">
+        <f>IF(
+OR(Registro_Triage!G6="",Registro_Triage!H6=""),
+"",
+IF(
+OR(Registro_Triage!G6="M",Registro_Triage!G6="Masculino"),
+IF(Registro_Triage!H6&lt;0.94,"Normal",
+IF(Registro_Triage!H6&lt;1.02,"Riesgo aumentado","Alto riesgo")),
+IF(
+OR(Registro_Triage!G6="F",Registro_Triage!G6="Femenino"),
+IF(Registro_Triage!H6&lt;0.8,"Normal",
+IF(Registro_Triage!H6&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
+""
+)
+))</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>Tabla_Triage[[#This Row],[ID Paciente]]</f>
         <v>42999324</v>
@@ -1626,54 +2086,83 @@
         <f>Tabla_Triage[[#This Row],[Fecha]]</f>
         <v>46028</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="1" t="str">
+        <f>Tabla_Triage[[#This Row],[Sexo]]</f>
+        <v>M</v>
+      </c>
+      <c r="D7" s="8">
         <f>IFERROR(Registro_Triage!E7/(Registro_Triage!F7^2),"")</f>
         <v>23.510204081632654</v>
       </c>
-      <c r="D7" s="9" t="str">
-        <f>IF(C7="","",IF(C7&lt;18.5,"Bajo peso",IF(C7&lt;25,"Normal",IF(C7&lt;30,"Sobrepeso","Obesidad"))))</f>
+      <c r="E7" s="9" t="str">
+        <f>IF(D7="","",IF(D7&lt;18.5,"Bajo peso",IF(D7&lt;25,"Normal",IF(D7&lt;30,"Sobrepeso","Obesidad"))))</f>
         <v>Normal</v>
       </c>
-      <c r="E7" s="12">
-        <f>IF(COUNT(Registro_Triage!E7:N7)=0,"",AVERAGE(Registro_Triage!E7:N7))</f>
-        <v>73.56</v>
-      </c>
-      <c r="F7" s="12">
-        <f>IF(COUNT(Registro_Triage!E7:N7)=0,"",AVERAGE(Registro_Triage!E7:N7))</f>
-        <v>73.56</v>
-      </c>
-      <c r="G7" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="F7" s="11">
+        <f>IF(COUNT(Registro_Triage!I7:J7)=0,"",AVERAGE(Registro_Triage!I7:J7))</f>
+        <v>119</v>
+      </c>
+      <c r="G7" s="11">
+        <f>IF(COUNT(Registro_Triage!K7:L7)=0,"",AVERAGE(Registro_Triage!K7:L7))</f>
+        <v>79</v>
+      </c>
+      <c r="H7" s="9" t="str">
+        <f>IF(
+OR(I7="",J7="",K7=""),
+"",
+IF(
+OR(I7=1,J7=1),
+"ALTO",
+IF(K7=1,"MEDIO","BAJO")
+)
+)</f>
         <v>BAJO</v>
       </c>
-      <c r="H7" t="str">
-        <f>IF(OR(Registro_Triage!N7="", NOT(ISNUMBER(Registro_Triage!N7*1))), "", IF(Registro_Triage!N7*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
+      <c r="I7" s="9" t="str">
+        <f>IF(OR(Registro_Triage!O7="", NOT(ISNUMBER(Registro_Triage!O7*1))), "", IF(Registro_Triage!O7*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
         <v>NORMAL</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f>IF(
 OR(
-E7 &gt; VLOOKUP("Presión Sistólica Normal",Referencias!A:C,3,FALSE),
-F7 &gt; VLOOKUP("Presión Diastólica Normal",Referencias!A:C,3,FALSE)
+F7 &gt; VLOOKUP("Presión Sistólica Normal",Referencias!A:C,3,FALSE),
+G7 &gt; VLOOKUP("Presión Diastólica Normal",Referencias!A:C,3,FALSE)
 ),
 1,
 0
 )</f>
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f>IF(
 OR(
-C7 &lt; VLOOKUP("IMC Normal",Referencias!A:C,2,FALSE),
-C7 &gt; VLOOKUP("IMC Normal",Referencias!A:C,3,FALSE)
+D7 &lt; VLOOKUP("IMC Normal",Referencias!A:C,2,FALSE),
+D7 &gt; VLOOKUP("IMC Normal",Referencias!A:C,3,FALSE)
 ),
 1,
 0
 )</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7" t="str">
+        <f>IF(
+OR(Registro_Triage!G7="",Registro_Triage!H7=""),
+"",
+IF(
+OR(Registro_Triage!G7="M",Registro_Triage!G7="Masculino"),
+IF(Registro_Triage!H7&lt;0.94,"Normal",
+IF(Registro_Triage!H7&lt;1.02,"Riesgo aumentado","Alto riesgo")),
+IF(
+OR(Registro_Triage!G7="F",Registro_Triage!G7="Femenino"),
+IF(Registro_Triage!H7&lt;0.8,"Normal",
+IF(Registro_Triage!H7&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
+""
+)
+))</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>Tabla_Triage[[#This Row],[ID Paciente]]</f>
         <v>30426305</v>
@@ -1682,54 +2171,83 @@
         <f>Tabla_Triage[[#This Row],[Fecha]]</f>
         <v>46028</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="1" t="str">
+        <f>Tabla_Triage[[#This Row],[Sexo]]</f>
+        <v>F</v>
+      </c>
+      <c r="D8" s="8">
         <f>IFERROR(Registro_Triage!E8/(Registro_Triage!F8^2),"")</f>
         <v>30.119375573921033</v>
       </c>
-      <c r="D8" s="9" t="str">
-        <f>IF(C8="","",IF(C8&lt;18.5,"Bajo peso",IF(C8&lt;25,"Normal",IF(C8&lt;30,"Sobrepeso","Obesidad"))))</f>
+      <c r="E8" s="9" t="str">
+        <f>IF(D8="","",IF(D8&lt;18.5,"Bajo peso",IF(D8&lt;25,"Normal",IF(D8&lt;30,"Sobrepeso","Obesidad"))))</f>
         <v>Obesidad</v>
       </c>
-      <c r="E8" s="12">
-        <f>IF(COUNT(Registro_Triage!E8:N8)=0,"",AVERAGE(Registro_Triage!E8:N8))</f>
-        <v>82.76</v>
-      </c>
-      <c r="F8" s="12">
-        <f>IF(COUNT(Registro_Triage!E8:N8)=0,"",AVERAGE(Registro_Triage!E8:N8))</f>
-        <v>82.76</v>
-      </c>
-      <c r="G8" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="F8" s="11">
+        <f>IF(COUNT(Registro_Triage!I8:J8)=0,"",AVERAGE(Registro_Triage!I8:J8))</f>
+        <v>140</v>
+      </c>
+      <c r="G8" s="11">
+        <f>IF(COUNT(Registro_Triage!K8:L8)=0,"",AVERAGE(Registro_Triage!K8:L8))</f>
+        <v>89</v>
+      </c>
+      <c r="H8" s="9" t="str">
+        <f>IF(
+OR(I8="",J8="",K8=""),
+"",
+IF(
+OR(I8=1,J8=1),
+"ALTO",
+IF(K8=1,"MEDIO","BAJO")
+)
+)</f>
         <v>ALTO</v>
       </c>
-      <c r="H8" t="str">
-        <f>IF(OR(Registro_Triage!N8="", NOT(ISNUMBER(Registro_Triage!N8*1))), "", IF(Registro_Triage!N8*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
+      <c r="I8" s="9" t="str">
+        <f>IF(OR(Registro_Triage!O8="", NOT(ISNUMBER(Registro_Triage!O8*1))), "", IF(Registro_Triage!O8*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
         <v>NORMAL</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <f>IF(
 OR(
-E8 &gt; VLOOKUP("Presión Sistólica Normal",Referencias!A:C,3,FALSE),
-F8 &gt; VLOOKUP("Presión Diastólica Normal",Referencias!A:C,3,FALSE)
+F8 &gt; VLOOKUP("Presión Sistólica Normal",Referencias!A:C,3,FALSE),
+G8 &gt; VLOOKUP("Presión Diastólica Normal",Referencias!A:C,3,FALSE)
 ),
 1,
 0
 )</f>
         <v>1</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <f>IF(
 OR(
-C8 &lt; VLOOKUP("IMC Normal",Referencias!A:C,2,FALSE),
-C8 &gt; VLOOKUP("IMC Normal",Referencias!A:C,3,FALSE)
+D8 &lt; VLOOKUP("IMC Normal",Referencias!A:C,2,FALSE),
+D8 &gt; VLOOKUP("IMC Normal",Referencias!A:C,3,FALSE)
 ),
 1,
 0
 )</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8" t="str">
+        <f>IF(
+OR(Registro_Triage!G8="",Registro_Triage!H8=""),
+"",
+IF(
+OR(Registro_Triage!G8="M",Registro_Triage!G8="Masculino"),
+IF(Registro_Triage!H8&lt;0.94,"Normal",
+IF(Registro_Triage!H8&lt;1.02,"Riesgo aumentado","Alto riesgo")),
+IF(
+OR(Registro_Triage!G8="F",Registro_Triage!G8="Femenino"),
+IF(Registro_Triage!H8&lt;0.8,"Normal",
+IF(Registro_Triage!H8&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
+""
+)
+))</f>
+        <v>Alto riesgo</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>Tabla_Triage[[#This Row],[ID Paciente]]</f>
         <v>22841369</v>
@@ -1738,54 +2256,83 @@
         <f>Tabla_Triage[[#This Row],[Fecha]]</f>
         <v>46029</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="1" t="str">
+        <f>Tabla_Triage[[#This Row],[Sexo]]</f>
+        <v>M</v>
+      </c>
+      <c r="D9" s="8">
         <f>IFERROR(Registro_Triage!E9/(Registro_Triage!F9^2),"")</f>
         <v>32.871972318339104</v>
       </c>
-      <c r="D9" s="9" t="str">
-        <f>IF(C9="","",IF(C9&lt;18.5,"Bajo peso",IF(C9&lt;25,"Normal",IF(C9&lt;30,"Sobrepeso","Obesidad"))))</f>
+      <c r="E9" s="9" t="str">
+        <f>IF(D9="","",IF(D9&lt;18.5,"Bajo peso",IF(D9&lt;25,"Normal",IF(D9&lt;30,"Sobrepeso","Obesidad"))))</f>
         <v>Obesidad</v>
       </c>
-      <c r="E9" s="12">
-        <f>IF(COUNT(Registro_Triage!E9:N9)=0,"",AVERAGE(Registro_Triage!E9:N9))</f>
-        <v>98.375</v>
-      </c>
-      <c r="F9" s="12">
-        <f>IF(COUNT(Registro_Triage!E9:N9)=0,"",AVERAGE(Registro_Triage!E9:N9))</f>
-        <v>98.375</v>
-      </c>
-      <c r="G9" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="F9" s="11">
+        <f>IF(COUNT(Registro_Triage!I9:J9)=0,"",AVERAGE(Registro_Triage!I9:J9))</f>
+        <v>167.5</v>
+      </c>
+      <c r="G9" s="11">
+        <f>IF(COUNT(Registro_Triage!K9:L9)=0,"",AVERAGE(Registro_Triage!K9:L9))</f>
+        <v>103</v>
+      </c>
+      <c r="H9" s="9" t="str">
+        <f>IF(
+OR(I9="",J9="",K9=""),
+"",
+IF(
+OR(I9=1,J9=1),
+"ALTO",
+IF(K9=1,"MEDIO","BAJO")
+)
+)</f>
         <v>ALTO</v>
       </c>
-      <c r="H9" t="str">
-        <f>IF(OR(Registro_Triage!N9="", NOT(ISNUMBER(Registro_Triage!N9*1))), "", IF(Registro_Triage!N9*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
+      <c r="I9" s="9" t="str">
+        <f>IF(OR(Registro_Triage!O9="", NOT(ISNUMBER(Registro_Triage!O9*1))), "", IF(Registro_Triage!O9*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
         <v>ALTO</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <f>IF(
 OR(
-E9 &gt; VLOOKUP("Presión Sistólica Normal",Referencias!A:C,3,FALSE),
-F9 &gt; VLOOKUP("Presión Diastólica Normal",Referencias!A:C,3,FALSE)
+F9 &gt; VLOOKUP("Presión Sistólica Normal",Referencias!A:C,3,FALSE),
+G9 &gt; VLOOKUP("Presión Diastólica Normal",Referencias!A:C,3,FALSE)
 ),
 1,
 0
 )</f>
         <v>1</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <f>IF(
 OR(
-C9 &lt; VLOOKUP("IMC Normal",Referencias!A:C,2,FALSE),
-C9 &gt; VLOOKUP("IMC Normal",Referencias!A:C,3,FALSE)
+D9 &lt; VLOOKUP("IMC Normal",Referencias!A:C,2,FALSE),
+D9 &gt; VLOOKUP("IMC Normal",Referencias!A:C,3,FALSE)
 ),
 1,
 0
 )</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9" t="str">
+        <f>IF(
+OR(Registro_Triage!G9="",Registro_Triage!H9=""),
+"",
+IF(
+OR(Registro_Triage!G9="M",Registro_Triage!G9="Masculino"),
+IF(Registro_Triage!H9&lt;0.94,"Normal",
+IF(Registro_Triage!H9&lt;1.02,"Riesgo aumentado","Alto riesgo")),
+IF(
+OR(Registro_Triage!G9="F",Registro_Triage!G9="Femenino"),
+IF(Registro_Triage!H9&lt;0.8,"Normal",
+IF(Registro_Triage!H9&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
+""
+)
+))</f>
+        <v>Alto riesgo</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>Tabla_Triage[[#This Row],[ID Paciente]]</f>
         <v>22123456</v>
@@ -1794,89 +2341,209 @@
         <f>Tabla_Triage[[#This Row],[Fecha]]</f>
         <v>45664</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="1" t="str">
+        <f>Tabla_Triage[[#This Row],[Sexo]]</f>
+        <v>M</v>
+      </c>
+      <c r="D10" s="8">
         <f>IFERROR(Registro_Triage!E10/(Registro_Triage!F10^2),"")</f>
         <v>29.411764705882355</v>
       </c>
-      <c r="D10" s="9" t="str">
-        <f>IF(C10="","",IF(C10&lt;18.5,"Bajo peso",IF(C10&lt;25,"Normal",IF(C10&lt;30,"Sobrepeso","Obesidad"))))</f>
+      <c r="E10" s="9" t="str">
+        <f>IF(D10="","",IF(D10&lt;18.5,"Bajo peso",IF(D10&lt;25,"Normal",IF(D10&lt;30,"Sobrepeso","Obesidad"))))</f>
         <v>Sobrepeso</v>
       </c>
-      <c r="E10" s="12">
-        <f>IF(COUNT(Registro_Triage!E10:N10)=0,"",AVERAGE(Registro_Triage!E10:N10))</f>
-        <v>72.155000000000001</v>
-      </c>
-      <c r="F10" s="12">
-        <f>IF(COUNT(Registro_Triage!E10:N10)=0,"",AVERAGE(Registro_Triage!E10:N10))</f>
-        <v>72.155000000000001</v>
-      </c>
-      <c r="G10" s="14" t="str">
-        <f>IF(
-OR(H10="",I10="",J10=""),
+      <c r="F10" s="11">
+        <f>IF(COUNT(Registro_Triage!I10:J10)=0,"",AVERAGE(Registro_Triage!I10:J10))</f>
+        <v>105</v>
+      </c>
+      <c r="G10" s="11">
+        <f>IF(COUNT(Registro_Triage!K10:L10)=0,"",AVERAGE(Registro_Triage!K10:L10))</f>
+        <v>70</v>
+      </c>
+      <c r="H10" s="13" t="str">
+        <f>IF(
+OR(I10="",J10="",K10=""),
 "",
 IF(
-OR(H10=1,I10=1),
+OR(I10=1,J10=1),
 "ALTO",
-IF(J10=1,"MEDIO","BAJO")
+IF(K10=1,"MEDIO","BAJO")
 )
 )</f>
         <v>MEDIO</v>
       </c>
-      <c r="H10" s="4" t="str">
-        <f>IF(OR(Registro_Triage!N10="", NOT(ISNUMBER(Registro_Triage!N10*1))), "", IF(Registro_Triage!N10*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
+      <c r="I10" s="13" t="str">
+        <f>IF(OR(Registro_Triage!O10="", NOT(ISNUMBER(Registro_Triage!O10*1))), "", IF(Registro_Triage!O10*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
         <v>ALTO</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <f>IF(
 OR(
-E10 &gt; VLOOKUP("Presión Sistólica Normal",Referencias!A:C,3,FALSE),
-F10 &gt; VLOOKUP("Presión Diastólica Normal",Referencias!A:C,3,FALSE)
+F10 &gt; VLOOKUP("Presión Sistólica Normal",Referencias!A:C,3,FALSE),
+G10 &gt; VLOOKUP("Presión Diastólica Normal",Referencias!A:C,3,FALSE)
 ),
 1,
 0
 )</f>
         <v>0</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <f>IF(
 OR(
-C10 &lt; VLOOKUP("IMC Normal",Referencias!A:C,2,FALSE),
-C10 &gt; VLOOKUP("IMC Normal",Referencias!A:C,3,FALSE)
+D10 &lt; VLOOKUP("IMC Normal",Referencias!A:C,2,FALSE),
+D10 &gt; VLOOKUP("IMC Normal",Referencias!A:C,3,FALSE)
 ),
 1,
 0
 )</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F13" s="13"/>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="11"/>
+      <c r="L10" t="str">
+        <f>IF(
+OR(Registro_Triage!G10="",Registro_Triage!H10=""),
+"",
+IF(
+OR(Registro_Triage!G10="M",Registro_Triage!G10="Masculino"),
+IF(Registro_Triage!H10&lt;0.94,"Normal",
+IF(Registro_Triage!H10&lt;1.02,"Riesgo aumentado","Alto riesgo")),
+IF(
+OR(Registro_Triage!G10="F",Registro_Triage!G10="Femenino"),
+IF(Registro_Triage!H10&lt;0.8,"Normal",
+IF(Registro_Triage!H10&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
+""
+)
+))</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>Tabla_Triage[[#This Row],[ID Paciente]]</f>
+        <v>39852147</v>
+      </c>
+      <c r="B11" s="1">
+        <f>Tabla_Triage[[#This Row],[Fecha]]</f>
+        <v>45664</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>Tabla_Triage[[#This Row],[Sexo]]</f>
+        <v>F</v>
+      </c>
+      <c r="D11" s="8">
+        <f>IFERROR(Registro_Triage!E11/(Registro_Triage!F11^2),"")</f>
+        <v>21.513858510523864</v>
+      </c>
+      <c r="E11" s="9" t="str">
+        <f>IF(D11="","",IF(D11&lt;18.5,"Bajo peso",IF(D11&lt;25,"Normal",IF(D11&lt;30,"Sobrepeso","Obesidad"))))</f>
+        <v>Normal</v>
+      </c>
+      <c r="F11" s="11">
+        <f>IF(COUNT(Registro_Triage!I11:J11)=0,"",AVERAGE(Registro_Triage!I11:J11))</f>
+        <v>113.5</v>
+      </c>
+      <c r="G11" s="11">
+        <f>IF(COUNT(Registro_Triage!K11:L11)=0,"",AVERAGE(Registro_Triage!K11:L11))</f>
+        <v>73</v>
+      </c>
+      <c r="H11" s="13" t="str">
+        <f>IF(
+OR(I11="",J11="",K11=""),
+"",
+IF(
+OR(I11=1,J11=1),
+"ALTO",
+IF(K11=1,"MEDIO","BAJO")
+)
+)</f>
+        <v>BAJO</v>
+      </c>
+      <c r="I11" s="13" t="str">
+        <f>IF(OR(Registro_Triage!O11="", NOT(ISNUMBER(Registro_Triage!O11*1))), "", IF(Registro_Triage!O11*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
+        <v>NORMAL</v>
+      </c>
+      <c r="J11" s="4">
+        <f>IF(
+OR(
+F11 &gt; VLOOKUP("Presión Sistólica Normal",Referencias!A:C,3,FALSE),
+G11 &gt; VLOOKUP("Presión Diastólica Normal",Referencias!A:C,3,FALSE)
+),
+1,
+0
+)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <f>IF(
+OR(
+D11 &lt; VLOOKUP("IMC Normal",Referencias!A:C,2,FALSE),
+D11 &gt; VLOOKUP("IMC Normal",Referencias!A:C,3,FALSE)
+),
+1,
+0
+)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" t="str">
+        <f>IF(
+OR(Registro_Triage!G11="",Registro_Triage!H11=""),
+"",
+IF(
+OR(Registro_Triage!G11="M",Registro_Triage!G11="Masculino"),
+IF(Registro_Triage!H11&lt;0.94,"Normal",
+IF(Registro_Triage!H11&lt;1.02,"Riesgo aumentado","Alto riesgo")),
+IF(
+OR(Registro_Triage!G11="F",Registro_Triage!G11="Femenino"),
+IF(Registro_Triage!H11&lt;0.8,"Normal",
+IF(Registro_Triage!H11&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
+""
+)
+))</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G13" s="12"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="ALTO">
-      <formula>NOT(ISERROR(SEARCH("ALTO",G1)))</formula>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="BAJO">
+      <formula>NOT(ISERROR(SEARCH("BAJO",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="MEDIO">
-      <formula>NOT(ISERROR(SEARCH("MEDIO",G1)))</formula>
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="MEDIO">
+      <formula>NOT(ISERROR(SEARCH("MEDIO",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="BAJO">
-      <formula>NOT(ISERROR(SEARCH("BAJO",G1)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="ALTO">
+      <formula>NOT(ISERROR(SEARCH("ALTO",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="NORMAL">
-      <formula>NOT(ISERROR(SEARCH("NORMAL",H1)))</formula>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="ALTO">
+      <formula>NOT(ISERROR(SEARCH("ALTO",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="ALTO">
-      <formula>NOT(ISERROR(SEARCH("ALTO",H1)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="NORMAL">
+      <formula>NOT(ISERROR(SEARCH("NORMAL",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Alto riesgo">
+      <formula>NOT(ISERROR(SEARCH("Alto riesgo",L1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Riesgo aumentado">
+      <formula>NOT(ISERROR(SEARCH("Riesgo aumentado",L1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Normal">
+      <formula>NOT(ISERROR(SEARCH("Normal",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F2:F11 G2:G11" formulaRange="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -1888,7 +2555,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1902,10 +2569,10 @@
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1913,10 +2580,10 @@
       <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="16">
         <v>18.5</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>24.9</v>
       </c>
     </row>
@@ -1924,10 +2591,10 @@
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>90</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>120</v>
       </c>
     </row>
@@ -1935,10 +2602,10 @@
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>60</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>80</v>
       </c>
     </row>
@@ -1946,10 +2613,10 @@
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>60</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>100</v>
       </c>
     </row>
@@ -1957,10 +2624,10 @@
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>95</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>100</v>
       </c>
     </row>
@@ -1968,14 +2635,15 @@
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>70</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/Triage_y_Evaluacion_Basica_Enfermeria.xlsx
+++ b/Excel/Triage_y_Evaluacion_Basica_Enfermeria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Hernán\Desktop\Administracion HernanMayol\Python_ISSUNNE\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7603E1FB-627A-4615-BE1A-5F2489215A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C52F857-890D-458D-B639-5F0026AEBE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registro_Triage" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>Fecha</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Talla (m)</t>
   </si>
   <si>
-    <t>Perímetro Cintura (cm)</t>
-  </si>
-  <si>
     <t>Presión Sistólica 1</t>
   </si>
   <si>
@@ -184,6 +181,15 @@
   </si>
   <si>
     <t>ALERTA_Cintura</t>
+  </si>
+  <si>
+    <t>Perímetro Cintura (m)</t>
+  </si>
+  <si>
+    <t>Paciente Ejemplo</t>
+  </si>
+  <si>
+    <t>Falta de agua</t>
   </si>
 </sst>
 </file>
@@ -256,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -292,14 +298,20 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <fill>
         <patternFill>
@@ -369,98 +381,28 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -475,34 +417,28 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -611,59 +547,62 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla_Triage" displayName="Tabla_Triage" ref="A1:P11">
-  <autoFilter ref="A1:P11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla_Triage" displayName="Tabla_Triage" ref="A1:Q12">
+  <autoFilter ref="A1:Q12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P4">
     <sortCondition ref="A1:A4"/>
   </sortState>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Fecha" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hora" dataDxfId="43"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Fecha" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hora" dataDxfId="34"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ID Paciente"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Nombre y Apellido" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Nombre y Apellido" dataDxfId="33"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Peso (kg)"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Talla (m)" dataDxfId="41"/>
-    <tableColumn id="19" xr3:uid="{A3612F64-308B-47A4-B163-BDE1CA9C2210}" name="Sexo" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Perímetro Cintura (cm)" dataDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Presión Sistólica 1" dataDxfId="39"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Presión Sistólica 2" dataDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Presión Diastólica 1" dataDxfId="37"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Presión Diastólica 2" dataDxfId="36"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Frecuencia Cardíaca" dataDxfId="35"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Glucemia (mg/dl)" dataDxfId="34"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Saturación O2 (%)" dataDxfId="33"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Observaciones/Comentarios" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Talla (m)" dataDxfId="32"/>
+    <tableColumn id="16" xr3:uid="{EB62B56F-A273-4996-9B57-F6B36FE64967}" name="IMC" dataDxfId="13">
+      <calculatedColumnFormula>IFERROR(E2/(Registro_Triage!F2^2),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{A3612F64-308B-47A4-B163-BDE1CA9C2210}" name="Sexo" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Perímetro Cintura (m)" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Presión Sistólica 1" dataDxfId="30"/>
+    <tableColumn id="17" xr3:uid="{C8E53D07-3C42-4C64-A28A-436C2D390692}" name="Presión Diastólica 1" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Presión Sistólica 2" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Presión Diastólica 2" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Frecuencia Cardíaca" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Glucemia (mg/dl)" dataDxfId="27"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Saturación O2 (%)" dataDxfId="26"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Observaciones/Comentarios" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla_Calculos" displayName="Tabla_Calculos" ref="A1:L11" totalsRowShown="0" headerRowDxfId="20">
-  <autoFilter ref="A1:L11" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla_Calculos" displayName="Tabla_Calculos" ref="A1:L12" totalsRowShown="0" headerRowDxfId="24">
+  <autoFilter ref="A1:L12" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID Paciente" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID Paciente" dataDxfId="23">
       <calculatedColumnFormula>Tabla_Triage[[#This Row],[ID Paciente]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Fecha" dataDxfId="30">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Fecha" dataDxfId="22">
       <calculatedColumnFormula>Tabla_Triage[[#This Row],[Fecha]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{5B10D3AB-37DC-4AC1-B3E1-411DF10FD1D5}" name="Sexo" dataDxfId="0">
+    <tableColumn id="13" xr3:uid="{5B10D3AB-37DC-4AC1-B3E1-411DF10FD1D5}" name="Sexo" dataDxfId="21">
       <calculatedColumnFormula>Tabla_Triage[[#This Row],[Sexo]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="IMC" dataDxfId="29">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="IMC" dataDxfId="20">
       <calculatedColumnFormula>IFERROR(Registro_Triage!E2/(Registro_Triage!F2^2),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Clasificación IMC" dataDxfId="28">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Clasificación IMC" dataDxfId="19">
       <calculatedColumnFormula>IF(D2="","",IF(D2&lt;18.5,"Bajo peso",IF(D2&lt;25,"Normal",IF(D2&lt;30,"Sobrepeso","Obesidad"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Presión Sistólica Promedio" dataDxfId="27">
-      <calculatedColumnFormula>IF(COUNT(Registro_Triage!I2:J2)=0,"",AVERAGE(Registro_Triage!I2:J2))</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Presión Sistólica Promedio" dataDxfId="10">
+      <calculatedColumnFormula>IF(COUNT(Registro_Triage!J2, Registro_Triage!L2)=0, "", AVERAGE(Registro_Triage!J2, Registro_Triage!L2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Presión Diastólica Promedio" dataDxfId="26">
-      <calculatedColumnFormula>IF(COUNT(Registro_Triage!K2:L2)=0,"",AVERAGE(Registro_Triage!K2:L2))</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Presión Diastólica Promedio" dataDxfId="9">
+      <calculatedColumnFormula>IF(COUNT(Registro_Triage!K2, Registro_Triage!M2)=0, "", AVERAGE(Registro_Triage!K2, Registro_Triage!M2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Riesgo Inicial" dataDxfId="25">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Riesgo Inicial" dataDxfId="18">
       <calculatedColumnFormula>IF(
 OR(I2="",J2="",K2=""),
 "",
@@ -674,10 +613,10 @@
 )
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2AA4B4F3-ACC1-459E-87D6-8904E584A3B4}" name="ALERTA_O2" dataDxfId="24">
-      <calculatedColumnFormula>IF(OR(Registro_Triage!O2="", NOT(ISNUMBER(Registro_Triage!O2*1))), "", IF(Registro_Triage!O2*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{2AA4B4F3-ACC1-459E-87D6-8904E584A3B4}" name="ALERTA_O2" dataDxfId="17">
+      <calculatedColumnFormula>IF(OR(Registro_Triage!P2="", NOT(ISNUMBER(Registro_Triage!P2*1))), "", IF(Registro_Triage!P2*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F79C9761-E006-46E6-A449-D718B8CB107E}" name="ALERTA_Presion" dataDxfId="23">
+    <tableColumn id="9" xr3:uid="{F79C9761-E006-46E6-A449-D718B8CB107E}" name="ALERTA_Presion" dataDxfId="16">
       <calculatedColumnFormula>IF(
 OR(
 F2 &gt; VLOOKUP("Presión Sistólica Normal",Referencias!A:C,3,FALSE),
@@ -687,7 +626,7 @@
 0
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1C56DDB5-870B-4F3E-8434-528DCB879C08}" name="ALERTA_IMC" dataDxfId="22">
+    <tableColumn id="10" xr3:uid="{1C56DDB5-870B-4F3E-8434-528DCB879C08}" name="ALERTA_IMC" dataDxfId="15">
       <calculatedColumnFormula>IF(
 OR(
 D2 &lt; VLOOKUP("IMC Normal",Referencias!A:C,2,FALSE),
@@ -697,18 +636,18 @@
 0
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{5491193D-3D2C-4BB1-9F1D-AF9F5FC6BE37}" name="ALERTA_Cintura" dataDxfId="9">
+    <tableColumn id="12" xr3:uid="{5491193D-3D2C-4BB1-9F1D-AF9F5FC6BE37}" name="ALERTA_Cintura" dataDxfId="14">
       <calculatedColumnFormula>IF(
-OR(Registro_Triage!G2="",Registro_Triage!H2=""),
+OR(Registro_Triage!H2="",Registro_Triage!I2=""),
 "",
 IF(
-OR(Registro_Triage!G2="M",Registro_Triage!G2="Masculino"),
-IF(Registro_Triage!H2&lt;0.94,"Normal",
-IF(Registro_Triage!H2&lt;1.02,"Riesgo aumentado","Alto riesgo")),
+OR(Registro_Triage!H2="M",Registro_Triage!H2="Masculino"),
+IF(Registro_Triage!I2&lt;0.94,"Normal",
+IF(Registro_Triage!I2&lt;1.02,"Riesgo aumentado","Alto riesgo")),
 IF(
-OR(Registro_Triage!G2="F",Registro_Triage!G2="Femenino"),
-IF(Registro_Triage!H2&lt;0.8,"Normal",
-IF(Registro_Triage!H2&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
+OR(Registro_Triage!H2="F",Registro_Triage!H2="Femenino"),
+IF(Registro_Triage!I2&lt;0.8,"Normal",
+IF(Registro_Triage!I2&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
 ""
 )
 ))</calculatedColumnFormula>
@@ -1003,11 +942,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,20 +957,21 @@
     <col min="4" max="4" width="20.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="14" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" style="14" customWidth="1"/>
-    <col min="15" max="15" width="19" style="14" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" style="11" customWidth="1"/>
-    <col min="17" max="17" width="28.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" style="14" customWidth="1"/>
+    <col min="15" max="15" width="26.28515625" style="14" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="65.85546875" style="11" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1050,39 +990,42 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="G1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="L1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="14" t="s">
+      <c r="N1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="14" t="s">
+      <c r="P1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>46024</v>
       </c>
@@ -1093,7 +1036,7 @@
         <v>42603154</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>80</v>
@@ -1101,37 +1044,41 @@
       <c r="F2" s="11">
         <v>1.84</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="11">
+      <c r="G2" s="8">
+        <f>IFERROR(E2/(Registro_Triage!F2^2),"")</f>
+        <v>23.629489603024574</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="11">
         <v>0.8</v>
       </c>
-      <c r="I2" s="14">
+      <c r="J2" s="14">
         <v>95</v>
-      </c>
-      <c r="J2" s="14">
-        <v>100</v>
       </c>
       <c r="K2" s="14">
         <v>70</v>
       </c>
       <c r="L2" s="14">
+        <v>100</v>
+      </c>
+      <c r="M2" s="14">
         <v>75</v>
       </c>
-      <c r="M2" s="14">
+      <c r="N2" s="14">
         <v>80</v>
       </c>
-      <c r="N2" s="14">
+      <c r="O2" s="14">
         <v>75</v>
       </c>
-      <c r="O2" s="11">
+      <c r="P2" s="11">
         <v>97</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q2" s="9"/>
+      <c r="R2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>46024</v>
       </c>
@@ -1142,7 +1089,7 @@
         <v>32634451</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>84</v>
@@ -1150,39 +1097,43 @@
       <c r="F3" s="11">
         <v>1.81</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="11">
+      <c r="G3" s="8">
+        <f>IFERROR(E3/(Registro_Triage!F3^2),"")</f>
+        <v>25.640242971826257</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="11">
         <v>0.8</v>
       </c>
-      <c r="I3" s="14">
+      <c r="J3" s="14">
         <v>83</v>
-      </c>
-      <c r="J3" s="14">
-        <v>79</v>
       </c>
       <c r="K3" s="14">
         <v>94</v>
       </c>
       <c r="L3" s="14">
+        <v>79</v>
+      </c>
+      <c r="M3" s="14">
         <v>90</v>
       </c>
-      <c r="M3" s="14">
+      <c r="N3" s="14">
         <v>95</v>
       </c>
-      <c r="N3" s="14">
+      <c r="O3" s="14">
         <v>79</v>
       </c>
-      <c r="O3" s="11">
+      <c r="P3" s="11">
         <v>99</v>
       </c>
-      <c r="P3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>46025</v>
       </c>
@@ -1193,7 +1144,7 @@
         <v>44451324</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>90</v>
@@ -1201,36 +1152,40 @@
       <c r="F4" s="11">
         <v>1.74</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="11">
+      <c r="G4" s="8">
+        <f>IFERROR(E4/(Registro_Triage!F4^2),"")</f>
+        <v>29.726516052318669</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="11">
         <v>0.96</v>
       </c>
-      <c r="I4" s="14">
+      <c r="J4" s="14">
         <v>85</v>
-      </c>
-      <c r="J4" s="14">
-        <v>70</v>
       </c>
       <c r="K4" s="14">
         <v>70</v>
       </c>
       <c r="L4" s="14">
+        <v>70</v>
+      </c>
+      <c r="M4" s="14">
         <v>85</v>
       </c>
-      <c r="M4" s="14">
+      <c r="N4" s="14">
         <v>90</v>
       </c>
-      <c r="O4" s="11">
+      <c r="P4" s="11">
         <v>95</v>
       </c>
-      <c r="P4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>46025</v>
       </c>
@@ -1241,7 +1196,7 @@
         <v>42451324</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>70</v>
@@ -1249,34 +1204,38 @@
       <c r="F5" s="11">
         <v>1.75</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="11">
+      <c r="G5" s="8">
+        <f>IFERROR(E5/(Registro_Triage!F5^2),"")</f>
+        <v>22.857142857142858</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="11">
         <v>0.7</v>
       </c>
-      <c r="I5" s="14">
+      <c r="J5" s="14">
         <v>89</v>
-      </c>
-      <c r="J5" s="14">
-        <v>95</v>
       </c>
       <c r="K5" s="14">
         <v>85</v>
       </c>
       <c r="L5" s="14">
+        <v>95</v>
+      </c>
+      <c r="M5" s="14">
         <v>98</v>
       </c>
-      <c r="M5" s="14">
+      <c r="N5" s="14">
         <v>97</v>
       </c>
-      <c r="O5" s="11">
+      <c r="P5" s="11">
         <v>100</v>
       </c>
-      <c r="P5" s="9"/>
-      <c r="Q5"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q5" s="9"/>
+      <c r="R5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>46027</v>
       </c>
@@ -1287,7 +1246,7 @@
         <v>32461724</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>80</v>
@@ -1295,14 +1254,15 @@
       <c r="F6" s="11">
         <v>1.81</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="G6" s="8">
+        <f>IFERROR(E6/(Registro_Triage!F6^2),"")</f>
+        <v>24.419279020786909</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="11">
         <v>0.75</v>
-      </c>
-      <c r="I6" s="14">
-        <v>120</v>
       </c>
       <c r="J6" s="14">
         <v>120</v>
@@ -1311,23 +1271,26 @@
         <v>80</v>
       </c>
       <c r="L6" s="14">
+        <v>120</v>
+      </c>
+      <c r="M6" s="14">
         <v>80</v>
       </c>
-      <c r="M6" s="14">
+      <c r="N6" s="14">
         <v>90</v>
       </c>
-      <c r="N6" s="14">
+      <c r="O6" s="14">
         <v>75</v>
       </c>
-      <c r="O6" s="11">
+      <c r="P6" s="11">
         <v>98</v>
       </c>
-      <c r="P6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>46028</v>
       </c>
@@ -1338,7 +1301,7 @@
         <v>42999324</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7">
         <v>72</v>
@@ -1346,37 +1309,41 @@
       <c r="F7" s="11">
         <v>1.75</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="11">
+      <c r="G7" s="8">
+        <f>IFERROR(E7/(Registro_Triage!F7^2),"")</f>
+        <v>23.510204081632654</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="11">
         <v>0.85</v>
       </c>
-      <c r="I7" s="14">
+      <c r="J7" s="14">
         <v>118</v>
-      </c>
-      <c r="J7" s="14">
-        <v>120</v>
       </c>
       <c r="K7" s="14">
         <v>78</v>
       </c>
       <c r="L7" s="14">
+        <v>120</v>
+      </c>
+      <c r="M7" s="14">
         <v>80</v>
       </c>
-      <c r="M7" s="14">
+      <c r="N7" s="14">
         <v>72</v>
       </c>
-      <c r="N7" s="14">
+      <c r="O7" s="14">
         <v>95</v>
       </c>
-      <c r="O7" s="11">
+      <c r="P7" s="11">
         <v>98</v>
       </c>
-      <c r="P7" s="9"/>
-      <c r="Q7"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q7" s="9"/>
+      <c r="R7"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>46028</v>
       </c>
@@ -1387,7 +1354,7 @@
         <v>30426305</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8">
         <v>82</v>
@@ -1395,39 +1362,43 @@
       <c r="F8" s="11">
         <v>1.65</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="G8" s="8">
+        <f>IFERROR(E8/(Registro_Triage!F8^2),"")</f>
+        <v>30.119375573921033</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="11">
         <v>0.95</v>
       </c>
-      <c r="I8" s="14">
+      <c r="J8" s="14">
         <v>138</v>
-      </c>
-      <c r="J8" s="14">
-        <v>142</v>
       </c>
       <c r="K8" s="14">
         <v>88</v>
       </c>
       <c r="L8" s="14">
+        <v>142</v>
+      </c>
+      <c r="M8" s="14">
         <v>90</v>
       </c>
-      <c r="M8" s="14">
+      <c r="N8" s="14">
         <v>80</v>
       </c>
-      <c r="N8" s="14">
+      <c r="O8" s="14">
         <v>110</v>
       </c>
-      <c r="O8" s="11">
+      <c r="P8" s="11">
         <v>95</v>
       </c>
-      <c r="P8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q8"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>46029</v>
       </c>
@@ -1438,7 +1409,7 @@
         <v>22841369</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>95</v>
@@ -1446,39 +1417,43 @@
       <c r="F9" s="11">
         <v>1.7</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="11">
+      <c r="G9" s="8">
+        <f>IFERROR(E9/(Registro_Triage!F9^2),"")</f>
+        <v>32.871972318339104</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="11">
         <v>1.05</v>
       </c>
-      <c r="I9" s="14">
+      <c r="J9" s="14">
         <v>165</v>
-      </c>
-      <c r="J9" s="14">
-        <v>170</v>
       </c>
       <c r="K9" s="14">
         <v>102</v>
       </c>
       <c r="L9" s="14">
+        <v>170</v>
+      </c>
+      <c r="M9" s="14">
         <v>104</v>
       </c>
-      <c r="M9" s="14">
+      <c r="N9" s="14">
         <v>96</v>
       </c>
-      <c r="N9" s="14">
+      <c r="O9" s="14">
         <v>160</v>
       </c>
-      <c r="O9" s="11">
+      <c r="P9" s="11">
         <v>89</v>
       </c>
-      <c r="P9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45664</v>
       </c>
@@ -1489,7 +1464,7 @@
         <v>22123456</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <v>85</v>
@@ -1497,39 +1472,43 @@
       <c r="F10" s="11">
         <v>1.7</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="G10" s="8">
+        <f>IFERROR(E10/(Registro_Triage!F10^2),"")</f>
+        <v>29.411764705882355</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="11">
         <v>0.85</v>
       </c>
-      <c r="I10" s="14">
+      <c r="J10" s="14">
         <v>95</v>
-      </c>
-      <c r="J10" s="14">
-        <v>115</v>
       </c>
       <c r="K10" s="14">
         <v>65</v>
       </c>
       <c r="L10" s="14">
+        <v>115</v>
+      </c>
+      <c r="M10" s="14">
         <v>75</v>
       </c>
-      <c r="M10" s="14">
+      <c r="N10" s="14">
         <v>80</v>
       </c>
-      <c r="N10" s="14">
+      <c r="O10" s="14">
         <v>110</v>
       </c>
-      <c r="O10" s="11">
+      <c r="P10" s="11">
         <v>94</v>
       </c>
-      <c r="P10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q10"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R10"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>45664</v>
       </c>
@@ -1540,7 +1519,7 @@
         <v>39852147</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11">
         <v>60</v>
@@ -1548,35 +1527,93 @@
       <c r="F11" s="11">
         <v>1.67</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="G11" s="8">
+        <f>IFERROR(E11/(Registro_Triage!F11^2),"")</f>
+        <v>21.513858510523864</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="11">
         <v>0.7</v>
       </c>
-      <c r="I11" s="14">
+      <c r="J11" s="14">
         <v>112</v>
-      </c>
-      <c r="J11" s="14">
-        <v>115</v>
       </c>
       <c r="K11" s="14">
         <v>72</v>
       </c>
       <c r="L11" s="14">
+        <v>115</v>
+      </c>
+      <c r="M11" s="14">
         <v>74</v>
       </c>
-      <c r="M11" s="14">
+      <c r="N11" s="14">
         <v>80</v>
       </c>
-      <c r="N11" s="14">
+      <c r="O11" s="14">
         <v>75</v>
       </c>
-      <c r="O11" s="11">
+      <c r="P11" s="11">
         <v>98</v>
       </c>
-      <c r="P11" s="9"/>
-      <c r="Q11"/>
+      <c r="Q11" s="9"/>
+      <c r="R11"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>46036</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C12">
+        <v>40329710</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>80</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1.84</v>
+      </c>
+      <c r="G12" s="8">
+        <f>IFERROR(E12/(Registro_Triage!F12^2),"")</f>
+        <v>23.629489603024574</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="J12" s="14">
+        <v>140</v>
+      </c>
+      <c r="K12" s="14">
+        <v>90</v>
+      </c>
+      <c r="L12" s="14">
+        <v>130</v>
+      </c>
+      <c r="M12" s="14">
+        <v>80</v>
+      </c>
+      <c r="N12" s="14">
+        <v>80</v>
+      </c>
+      <c r="O12" s="14">
+        <v>75</v>
+      </c>
+      <c r="P12" s="11">
+        <v>97</v>
+      </c>
+      <c r="Q12" s="22" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1592,16 +1629,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
@@ -1622,34 +1659,34 @@
         <v>0</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>16</v>
-      </c>
       <c r="H1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="17" t="s">
-        <v>39</v>
-      </c>
       <c r="L1" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1674,15 +1711,15 @@
         <v>Normal</v>
       </c>
       <c r="F2" s="11">
-        <f>IF(COUNT(Registro_Triage!I2:J2)=0,"",AVERAGE(Registro_Triage!I2:J2))</f>
+        <f>IF(COUNT(Registro_Triage!J2, Registro_Triage!L2)=0, "", AVERAGE(Registro_Triage!J2, Registro_Triage!L2))</f>
         <v>97.5</v>
       </c>
       <c r="G2" s="11">
-        <f>IF(COUNT(Registro_Triage!K2:L2)=0,"",AVERAGE(Registro_Triage!K2:L2))</f>
+        <f>IF(COUNT(Registro_Triage!K2, Registro_Triage!M2)=0, "", AVERAGE(Registro_Triage!K2, Registro_Triage!M2))</f>
         <v>72.5</v>
       </c>
       <c r="H2" s="9" t="str">
-        <f>IF(
+        <f t="shared" ref="H2:H11" si="0">IF(
 OR(I2="",J2="",K2=""),
 "",
 IF(
@@ -1694,7 +1731,7 @@
         <v>BAJO</v>
       </c>
       <c r="I2" s="9" t="str">
-        <f>IF(OR(Registro_Triage!O2="", NOT(ISNUMBER(Registro_Triage!O2*1))), "", IF(Registro_Triage!O2*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
+        <f>IF(OR(Registro_Triage!P2="", NOT(ISNUMBER(Registro_Triage!P2*1))), "", IF(Registro_Triage!P2*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
         <v>NORMAL</v>
       </c>
       <c r="J2">
@@ -1721,16 +1758,16 @@
       </c>
       <c r="L2" t="str">
         <f>IF(
-OR(Registro_Triage!G2="",Registro_Triage!H2=""),
+OR(Registro_Triage!H2="",Registro_Triage!I2=""),
 "",
 IF(
-OR(Registro_Triage!G2="M",Registro_Triage!G2="Masculino"),
-IF(Registro_Triage!H2&lt;0.94,"Normal",
-IF(Registro_Triage!H2&lt;1.02,"Riesgo aumentado","Alto riesgo")),
+OR(Registro_Triage!H2="M",Registro_Triage!H2="Masculino"),
+IF(Registro_Triage!I2&lt;0.94,"Normal",
+IF(Registro_Triage!I2&lt;1.02,"Riesgo aumentado","Alto riesgo")),
 IF(
-OR(Registro_Triage!G2="F",Registro_Triage!G2="Femenino"),
-IF(Registro_Triage!H2&lt;0.8,"Normal",
-IF(Registro_Triage!H2&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
+OR(Registro_Triage!H2="F",Registro_Triage!H2="Femenino"),
+IF(Registro_Triage!I2&lt;0.8,"Normal",
+IF(Registro_Triage!I2&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
 ""
 )
 ))</f>
@@ -1755,31 +1792,23 @@
         <v>25.640242971826257</v>
       </c>
       <c r="E3" s="9" t="str">
-        <f t="shared" ref="E3:E6" si="0">IF(D3="","",IF(D3&lt;18.5,"Bajo peso",IF(D3&lt;25,"Normal",IF(D3&lt;30,"Sobrepeso","Obesidad"))))</f>
+        <f t="shared" ref="E3:E6" si="1">IF(D3="","",IF(D3&lt;18.5,"Bajo peso",IF(D3&lt;25,"Normal",IF(D3&lt;30,"Sobrepeso","Obesidad"))))</f>
         <v>Sobrepeso</v>
       </c>
       <c r="F3" s="11">
-        <f>IF(COUNT(Registro_Triage!I3:J3)=0,"",AVERAGE(Registro_Triage!I3:J3))</f>
+        <f>IF(COUNT(Registro_Triage!J3, Registro_Triage!L3)=0, "", AVERAGE(Registro_Triage!J3, Registro_Triage!L3))</f>
         <v>81</v>
       </c>
       <c r="G3" s="11">
-        <f>IF(COUNT(Registro_Triage!K3:L3)=0,"",AVERAGE(Registro_Triage!K3:L3))</f>
+        <f>IF(COUNT(Registro_Triage!K3, Registro_Triage!M3)=0, "", AVERAGE(Registro_Triage!K3, Registro_Triage!M3))</f>
         <v>92</v>
       </c>
       <c r="H3" s="9" t="str">
-        <f>IF(
-OR(I3="",J3="",K3=""),
-"",
-IF(
-OR(I3=1,J3=1),
-"ALTO",
-IF(K3=1,"MEDIO","BAJO")
-)
-)</f>
+        <f t="shared" si="0"/>
         <v>ALTO</v>
       </c>
       <c r="I3" s="9" t="str">
-        <f>IF(OR(Registro_Triage!O3="", NOT(ISNUMBER(Registro_Triage!O3*1))), "", IF(Registro_Triage!O3*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
+        <f>IF(OR(Registro_Triage!P3="", NOT(ISNUMBER(Registro_Triage!P3*1))), "", IF(Registro_Triage!P3*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
         <v>NORMAL</v>
       </c>
       <c r="J3">
@@ -1806,16 +1835,16 @@
       </c>
       <c r="L3" t="str">
         <f>IF(
-OR(Registro_Triage!G3="",Registro_Triage!H3=""),
+OR(Registro_Triage!H3="",Registro_Triage!I3=""),
 "",
 IF(
-OR(Registro_Triage!G3="M",Registro_Triage!G3="Masculino"),
-IF(Registro_Triage!H3&lt;0.94,"Normal",
-IF(Registro_Triage!H3&lt;1.02,"Riesgo aumentado","Alto riesgo")),
+OR(Registro_Triage!H3="M",Registro_Triage!H3="Masculino"),
+IF(Registro_Triage!I3&lt;0.94,"Normal",
+IF(Registro_Triage!I3&lt;1.02,"Riesgo aumentado","Alto riesgo")),
 IF(
-OR(Registro_Triage!G3="F",Registro_Triage!G3="Femenino"),
-IF(Registro_Triage!H3&lt;0.8,"Normal",
-IF(Registro_Triage!H3&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
+OR(Registro_Triage!H3="F",Registro_Triage!H3="Femenino"),
+IF(Registro_Triage!I3&lt;0.8,"Normal",
+IF(Registro_Triage!I3&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
 ""
 )
 ))</f>
@@ -1840,31 +1869,23 @@
         <v>29.726516052318669</v>
       </c>
       <c r="E4" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Sobrepeso</v>
+      </c>
+      <c r="F4" s="11">
+        <f>IF(COUNT(Registro_Triage!J4, Registro_Triage!L4)=0, "", AVERAGE(Registro_Triage!J4, Registro_Triage!L4))</f>
+        <v>77.5</v>
+      </c>
+      <c r="G4" s="11">
+        <f>IF(COUNT(Registro_Triage!K4, Registro_Triage!M4)=0, "", AVERAGE(Registro_Triage!K4, Registro_Triage!M4))</f>
+        <v>77.5</v>
+      </c>
+      <c r="H4" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>Sobrepeso</v>
-      </c>
-      <c r="F4" s="11">
-        <f>IF(COUNT(Registro_Triage!I4:J4)=0,"",AVERAGE(Registro_Triage!I4:J4))</f>
-        <v>77.5</v>
-      </c>
-      <c r="G4" s="11">
-        <f>IF(COUNT(Registro_Triage!K4:L4)=0,"",AVERAGE(Registro_Triage!K4:L4))</f>
-        <v>77.5</v>
-      </c>
-      <c r="H4" s="9" t="str">
-        <f>IF(
-OR(I4="",J4="",K4=""),
-"",
-IF(
-OR(I4=1,J4=1),
-"ALTO",
-IF(K4=1,"MEDIO","BAJO")
-)
-)</f>
         <v>MEDIO</v>
       </c>
       <c r="I4" s="9" t="str">
-        <f>IF(OR(Registro_Triage!O4="", NOT(ISNUMBER(Registro_Triage!O4*1))), "", IF(Registro_Triage!O4*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
+        <f>IF(OR(Registro_Triage!P4="", NOT(ISNUMBER(Registro_Triage!P4*1))), "", IF(Registro_Triage!P4*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
         <v>NORMAL</v>
       </c>
       <c r="J4">
@@ -1891,16 +1912,16 @@
       </c>
       <c r="L4" t="str">
         <f>IF(
-OR(Registro_Triage!G4="",Registro_Triage!H4=""),
+OR(Registro_Triage!H4="",Registro_Triage!I4=""),
 "",
 IF(
-OR(Registro_Triage!G4="M",Registro_Triage!G4="Masculino"),
-IF(Registro_Triage!H4&lt;0.94,"Normal",
-IF(Registro_Triage!H4&lt;1.02,"Riesgo aumentado","Alto riesgo")),
+OR(Registro_Triage!H4="M",Registro_Triage!H4="Masculino"),
+IF(Registro_Triage!I4&lt;0.94,"Normal",
+IF(Registro_Triage!I4&lt;1.02,"Riesgo aumentado","Alto riesgo")),
 IF(
-OR(Registro_Triage!G4="F",Registro_Triage!G4="Femenino"),
-IF(Registro_Triage!H4&lt;0.8,"Normal",
-IF(Registro_Triage!H4&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
+OR(Registro_Triage!H4="F",Registro_Triage!H4="Femenino"),
+IF(Registro_Triage!I4&lt;0.8,"Normal",
+IF(Registro_Triage!I4&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
 ""
 )
 ))</f>
@@ -1925,31 +1946,23 @@
         <v>22.857142857142858</v>
       </c>
       <c r="E5" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Normal</v>
+      </c>
+      <c r="F5" s="11">
+        <f>IF(COUNT(Registro_Triage!J5, Registro_Triage!L5)=0, "", AVERAGE(Registro_Triage!J5, Registro_Triage!L5))</f>
+        <v>92</v>
+      </c>
+      <c r="G5" s="11">
+        <f>IF(COUNT(Registro_Triage!K5, Registro_Triage!M5)=0, "", AVERAGE(Registro_Triage!K5, Registro_Triage!M5))</f>
+        <v>91.5</v>
+      </c>
+      <c r="H5" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>Normal</v>
-      </c>
-      <c r="F5" s="11">
-        <f>IF(COUNT(Registro_Triage!I5:J5)=0,"",AVERAGE(Registro_Triage!I5:J5))</f>
-        <v>92</v>
-      </c>
-      <c r="G5" s="11">
-        <f>IF(COUNT(Registro_Triage!K5:L5)=0,"",AVERAGE(Registro_Triage!K5:L5))</f>
-        <v>91.5</v>
-      </c>
-      <c r="H5" s="9" t="str">
-        <f>IF(
-OR(I5="",J5="",K5=""),
-"",
-IF(
-OR(I5=1,J5=1),
-"ALTO",
-IF(K5=1,"MEDIO","BAJO")
-)
-)</f>
         <v>ALTO</v>
       </c>
       <c r="I5" s="9" t="str">
-        <f>IF(OR(Registro_Triage!O5="", NOT(ISNUMBER(Registro_Triage!O5*1))), "", IF(Registro_Triage!O5*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
+        <f>IF(OR(Registro_Triage!P5="", NOT(ISNUMBER(Registro_Triage!P5*1))), "", IF(Registro_Triage!P5*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
         <v>NORMAL</v>
       </c>
       <c r="J5">
@@ -1976,16 +1989,16 @@
       </c>
       <c r="L5" t="str">
         <f>IF(
-OR(Registro_Triage!G5="",Registro_Triage!H5=""),
+OR(Registro_Triage!H5="",Registro_Triage!I5=""),
 "",
 IF(
-OR(Registro_Triage!G5="M",Registro_Triage!G5="Masculino"),
-IF(Registro_Triage!H5&lt;0.94,"Normal",
-IF(Registro_Triage!H5&lt;1.02,"Riesgo aumentado","Alto riesgo")),
+OR(Registro_Triage!H5="M",Registro_Triage!H5="Masculino"),
+IF(Registro_Triage!I5&lt;0.94,"Normal",
+IF(Registro_Triage!I5&lt;1.02,"Riesgo aumentado","Alto riesgo")),
 IF(
-OR(Registro_Triage!G5="F",Registro_Triage!G5="Femenino"),
-IF(Registro_Triage!H5&lt;0.8,"Normal",
-IF(Registro_Triage!H5&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
+OR(Registro_Triage!H5="F",Registro_Triage!H5="Femenino"),
+IF(Registro_Triage!I5&lt;0.8,"Normal",
+IF(Registro_Triage!I5&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
 ""
 )
 ))</f>
@@ -2010,31 +2023,23 @@
         <v>24.419279020786909</v>
       </c>
       <c r="E6" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Normal</v>
+      </c>
+      <c r="F6" s="11">
+        <f>IF(COUNT(Registro_Triage!J6, Registro_Triage!L6)=0, "", AVERAGE(Registro_Triage!J6, Registro_Triage!L6))</f>
+        <v>120</v>
+      </c>
+      <c r="G6" s="11">
+        <f>IF(COUNT(Registro_Triage!K6, Registro_Triage!M6)=0, "", AVERAGE(Registro_Triage!K6, Registro_Triage!M6))</f>
+        <v>80</v>
+      </c>
+      <c r="H6" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>Normal</v>
-      </c>
-      <c r="F6" s="11">
-        <f>IF(COUNT(Registro_Triage!I6:J6)=0,"",AVERAGE(Registro_Triage!I6:J6))</f>
-        <v>120</v>
-      </c>
-      <c r="G6" s="11">
-        <f>IF(COUNT(Registro_Triage!K6:L6)=0,"",AVERAGE(Registro_Triage!K6:L6))</f>
-        <v>80</v>
-      </c>
-      <c r="H6" s="9" t="str">
-        <f>IF(
-OR(I6="",J6="",K6=""),
-"",
-IF(
-OR(I6=1,J6=1),
-"ALTO",
-IF(K6=1,"MEDIO","BAJO")
-)
-)</f>
         <v>BAJO</v>
       </c>
       <c r="I6" s="9" t="str">
-        <f>IF(OR(Registro_Triage!O6="", NOT(ISNUMBER(Registro_Triage!O6*1))), "", IF(Registro_Triage!O6*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
+        <f>IF(OR(Registro_Triage!P6="", NOT(ISNUMBER(Registro_Triage!P6*1))), "", IF(Registro_Triage!P6*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
         <v>NORMAL</v>
       </c>
       <c r="J6">
@@ -2061,16 +2066,16 @@
       </c>
       <c r="L6" t="str">
         <f>IF(
-OR(Registro_Triage!G6="",Registro_Triage!H6=""),
+OR(Registro_Triage!H6="",Registro_Triage!I6=""),
 "",
 IF(
-OR(Registro_Triage!G6="M",Registro_Triage!G6="Masculino"),
-IF(Registro_Triage!H6&lt;0.94,"Normal",
-IF(Registro_Triage!H6&lt;1.02,"Riesgo aumentado","Alto riesgo")),
+OR(Registro_Triage!H6="M",Registro_Triage!H6="Masculino"),
+IF(Registro_Triage!I6&lt;0.94,"Normal",
+IF(Registro_Triage!I6&lt;1.02,"Riesgo aumentado","Alto riesgo")),
 IF(
-OR(Registro_Triage!G6="F",Registro_Triage!G6="Femenino"),
-IF(Registro_Triage!H6&lt;0.8,"Normal",
-IF(Registro_Triage!H6&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
+OR(Registro_Triage!H6="F",Registro_Triage!H6="Femenino"),
+IF(Registro_Triage!I6&lt;0.8,"Normal",
+IF(Registro_Triage!I6&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
 ""
 )
 ))</f>
@@ -2099,27 +2104,19 @@
         <v>Normal</v>
       </c>
       <c r="F7" s="11">
-        <f>IF(COUNT(Registro_Triage!I7:J7)=0,"",AVERAGE(Registro_Triage!I7:J7))</f>
+        <f>IF(COUNT(Registro_Triage!J7, Registro_Triage!L7)=0, "", AVERAGE(Registro_Triage!J7, Registro_Triage!L7))</f>
         <v>119</v>
       </c>
       <c r="G7" s="11">
-        <f>IF(COUNT(Registro_Triage!K7:L7)=0,"",AVERAGE(Registro_Triage!K7:L7))</f>
+        <f>IF(COUNT(Registro_Triage!K7, Registro_Triage!M7)=0, "", AVERAGE(Registro_Triage!K7, Registro_Triage!M7))</f>
         <v>79</v>
       </c>
       <c r="H7" s="9" t="str">
-        <f>IF(
-OR(I7="",J7="",K7=""),
-"",
-IF(
-OR(I7=1,J7=1),
-"ALTO",
-IF(K7=1,"MEDIO","BAJO")
-)
-)</f>
+        <f t="shared" si="0"/>
         <v>BAJO</v>
       </c>
       <c r="I7" s="9" t="str">
-        <f>IF(OR(Registro_Triage!O7="", NOT(ISNUMBER(Registro_Triage!O7*1))), "", IF(Registro_Triage!O7*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
+        <f>IF(OR(Registro_Triage!P7="", NOT(ISNUMBER(Registro_Triage!P7*1))), "", IF(Registro_Triage!P7*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
         <v>NORMAL</v>
       </c>
       <c r="J7">
@@ -2146,16 +2143,16 @@
       </c>
       <c r="L7" t="str">
         <f>IF(
-OR(Registro_Triage!G7="",Registro_Triage!H7=""),
+OR(Registro_Triage!H7="",Registro_Triage!I7=""),
 "",
 IF(
-OR(Registro_Triage!G7="M",Registro_Triage!G7="Masculino"),
-IF(Registro_Triage!H7&lt;0.94,"Normal",
-IF(Registro_Triage!H7&lt;1.02,"Riesgo aumentado","Alto riesgo")),
+OR(Registro_Triage!H7="M",Registro_Triage!H7="Masculino"),
+IF(Registro_Triage!I7&lt;0.94,"Normal",
+IF(Registro_Triage!I7&lt;1.02,"Riesgo aumentado","Alto riesgo")),
 IF(
-OR(Registro_Triage!G7="F",Registro_Triage!G7="Femenino"),
-IF(Registro_Triage!H7&lt;0.8,"Normal",
-IF(Registro_Triage!H7&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
+OR(Registro_Triage!H7="F",Registro_Triage!H7="Femenino"),
+IF(Registro_Triage!I7&lt;0.8,"Normal",
+IF(Registro_Triage!I7&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
 ""
 )
 ))</f>
@@ -2184,27 +2181,19 @@
         <v>Obesidad</v>
       </c>
       <c r="F8" s="11">
-        <f>IF(COUNT(Registro_Triage!I8:J8)=0,"",AVERAGE(Registro_Triage!I8:J8))</f>
+        <f>IF(COUNT(Registro_Triage!J8, Registro_Triage!L8)=0, "", AVERAGE(Registro_Triage!J8, Registro_Triage!L8))</f>
         <v>140</v>
       </c>
       <c r="G8" s="11">
-        <f>IF(COUNT(Registro_Triage!K8:L8)=0,"",AVERAGE(Registro_Triage!K8:L8))</f>
+        <f>IF(COUNT(Registro_Triage!K8, Registro_Triage!M8)=0, "", AVERAGE(Registro_Triage!K8, Registro_Triage!M8))</f>
         <v>89</v>
       </c>
       <c r="H8" s="9" t="str">
-        <f>IF(
-OR(I8="",J8="",K8=""),
-"",
-IF(
-OR(I8=1,J8=1),
-"ALTO",
-IF(K8=1,"MEDIO","BAJO")
-)
-)</f>
+        <f t="shared" si="0"/>
         <v>ALTO</v>
       </c>
       <c r="I8" s="9" t="str">
-        <f>IF(OR(Registro_Triage!O8="", NOT(ISNUMBER(Registro_Triage!O8*1))), "", IF(Registro_Triage!O8*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
+        <f>IF(OR(Registro_Triage!P8="", NOT(ISNUMBER(Registro_Triage!P8*1))), "", IF(Registro_Triage!P8*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
         <v>NORMAL</v>
       </c>
       <c r="J8" s="4">
@@ -2231,16 +2220,16 @@
       </c>
       <c r="L8" t="str">
         <f>IF(
-OR(Registro_Triage!G8="",Registro_Triage!H8=""),
+OR(Registro_Triage!H8="",Registro_Triage!I8=""),
 "",
 IF(
-OR(Registro_Triage!G8="M",Registro_Triage!G8="Masculino"),
-IF(Registro_Triage!H8&lt;0.94,"Normal",
-IF(Registro_Triage!H8&lt;1.02,"Riesgo aumentado","Alto riesgo")),
+OR(Registro_Triage!H8="M",Registro_Triage!H8="Masculino"),
+IF(Registro_Triage!I8&lt;0.94,"Normal",
+IF(Registro_Triage!I8&lt;1.02,"Riesgo aumentado","Alto riesgo")),
 IF(
-OR(Registro_Triage!G8="F",Registro_Triage!G8="Femenino"),
-IF(Registro_Triage!H8&lt;0.8,"Normal",
-IF(Registro_Triage!H8&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
+OR(Registro_Triage!H8="F",Registro_Triage!H8="Femenino"),
+IF(Registro_Triage!I8&lt;0.8,"Normal",
+IF(Registro_Triage!I8&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
 ""
 )
 ))</f>
@@ -2269,27 +2258,19 @@
         <v>Obesidad</v>
       </c>
       <c r="F9" s="11">
-        <f>IF(COUNT(Registro_Triage!I9:J9)=0,"",AVERAGE(Registro_Triage!I9:J9))</f>
+        <f>IF(COUNT(Registro_Triage!J9, Registro_Triage!L9)=0, "", AVERAGE(Registro_Triage!J9, Registro_Triage!L9))</f>
         <v>167.5</v>
       </c>
       <c r="G9" s="11">
-        <f>IF(COUNT(Registro_Triage!K9:L9)=0,"",AVERAGE(Registro_Triage!K9:L9))</f>
+        <f>IF(COUNT(Registro_Triage!K9, Registro_Triage!M9)=0, "", AVERAGE(Registro_Triage!K9, Registro_Triage!M9))</f>
         <v>103</v>
       </c>
       <c r="H9" s="9" t="str">
-        <f>IF(
-OR(I9="",J9="",K9=""),
-"",
-IF(
-OR(I9=1,J9=1),
-"ALTO",
-IF(K9=1,"MEDIO","BAJO")
-)
-)</f>
+        <f t="shared" si="0"/>
         <v>ALTO</v>
       </c>
       <c r="I9" s="9" t="str">
-        <f>IF(OR(Registro_Triage!O9="", NOT(ISNUMBER(Registro_Triage!O9*1))), "", IF(Registro_Triage!O9*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
+        <f>IF(OR(Registro_Triage!P9="", NOT(ISNUMBER(Registro_Triage!P9*1))), "", IF(Registro_Triage!P9*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
         <v>ALTO</v>
       </c>
       <c r="J9" s="4">
@@ -2316,16 +2297,16 @@
       </c>
       <c r="L9" t="str">
         <f>IF(
-OR(Registro_Triage!G9="",Registro_Triage!H9=""),
+OR(Registro_Triage!H9="",Registro_Triage!I9=""),
 "",
 IF(
-OR(Registro_Triage!G9="M",Registro_Triage!G9="Masculino"),
-IF(Registro_Triage!H9&lt;0.94,"Normal",
-IF(Registro_Triage!H9&lt;1.02,"Riesgo aumentado","Alto riesgo")),
+OR(Registro_Triage!H9="M",Registro_Triage!H9="Masculino"),
+IF(Registro_Triage!I9&lt;0.94,"Normal",
+IF(Registro_Triage!I9&lt;1.02,"Riesgo aumentado","Alto riesgo")),
 IF(
-OR(Registro_Triage!G9="F",Registro_Triage!G9="Femenino"),
-IF(Registro_Triage!H9&lt;0.8,"Normal",
-IF(Registro_Triage!H9&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
+OR(Registro_Triage!H9="F",Registro_Triage!H9="Femenino"),
+IF(Registro_Triage!I9&lt;0.8,"Normal",
+IF(Registro_Triage!I9&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
 ""
 )
 ))</f>
@@ -2354,27 +2335,19 @@
         <v>Sobrepeso</v>
       </c>
       <c r="F10" s="11">
-        <f>IF(COUNT(Registro_Triage!I10:J10)=0,"",AVERAGE(Registro_Triage!I10:J10))</f>
+        <f>IF(COUNT(Registro_Triage!J10, Registro_Triage!L10)=0, "", AVERAGE(Registro_Triage!J10, Registro_Triage!L10))</f>
         <v>105</v>
       </c>
       <c r="G10" s="11">
-        <f>IF(COUNT(Registro_Triage!K10:L10)=0,"",AVERAGE(Registro_Triage!K10:L10))</f>
+        <f>IF(COUNT(Registro_Triage!K10, Registro_Triage!M10)=0, "", AVERAGE(Registro_Triage!K10, Registro_Triage!M10))</f>
         <v>70</v>
       </c>
       <c r="H10" s="13" t="str">
-        <f>IF(
-OR(I10="",J10="",K10=""),
-"",
-IF(
-OR(I10=1,J10=1),
-"ALTO",
-IF(K10=1,"MEDIO","BAJO")
-)
-)</f>
+        <f t="shared" si="0"/>
         <v>MEDIO</v>
       </c>
       <c r="I10" s="13" t="str">
-        <f>IF(OR(Registro_Triage!O10="", NOT(ISNUMBER(Registro_Triage!O10*1))), "", IF(Registro_Triage!O10*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
+        <f>IF(OR(Registro_Triage!P10="", NOT(ISNUMBER(Registro_Triage!P10*1))), "", IF(Registro_Triage!P10*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
         <v>ALTO</v>
       </c>
       <c r="J10" s="4">
@@ -2401,16 +2374,16 @@
       </c>
       <c r="L10" t="str">
         <f>IF(
-OR(Registro_Triage!G10="",Registro_Triage!H10=""),
+OR(Registro_Triage!H10="",Registro_Triage!I10=""),
 "",
 IF(
-OR(Registro_Triage!G10="M",Registro_Triage!G10="Masculino"),
-IF(Registro_Triage!H10&lt;0.94,"Normal",
-IF(Registro_Triage!H10&lt;1.02,"Riesgo aumentado","Alto riesgo")),
+OR(Registro_Triage!H10="M",Registro_Triage!H10="Masculino"),
+IF(Registro_Triage!I10&lt;0.94,"Normal",
+IF(Registro_Triage!I10&lt;1.02,"Riesgo aumentado","Alto riesgo")),
 IF(
-OR(Registro_Triage!G10="F",Registro_Triage!G10="Femenino"),
-IF(Registro_Triage!H10&lt;0.8,"Normal",
-IF(Registro_Triage!H10&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
+OR(Registro_Triage!H10="F",Registro_Triage!H10="Femenino"),
+IF(Registro_Triage!I10&lt;0.8,"Normal",
+IF(Registro_Triage!I10&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
 ""
 )
 ))</f>
@@ -2439,27 +2412,19 @@
         <v>Normal</v>
       </c>
       <c r="F11" s="11">
-        <f>IF(COUNT(Registro_Triage!I11:J11)=0,"",AVERAGE(Registro_Triage!I11:J11))</f>
+        <f>IF(COUNT(Registro_Triage!J11, Registro_Triage!L11)=0, "", AVERAGE(Registro_Triage!J11, Registro_Triage!L11))</f>
         <v>113.5</v>
       </c>
       <c r="G11" s="11">
-        <f>IF(COUNT(Registro_Triage!K11:L11)=0,"",AVERAGE(Registro_Triage!K11:L11))</f>
+        <f>IF(COUNT(Registro_Triage!K11, Registro_Triage!M11)=0, "", AVERAGE(Registro_Triage!K11, Registro_Triage!M11))</f>
         <v>73</v>
       </c>
       <c r="H11" s="13" t="str">
-        <f>IF(
-OR(I11="",J11="",K11=""),
-"",
-IF(
-OR(I11=1,J11=1),
-"ALTO",
-IF(K11=1,"MEDIO","BAJO")
-)
-)</f>
+        <f t="shared" si="0"/>
         <v>BAJO</v>
       </c>
       <c r="I11" s="13" t="str">
-        <f>IF(OR(Registro_Triage!O11="", NOT(ISNUMBER(Registro_Triage!O11*1))), "", IF(Registro_Triage!O11*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
+        <f>IF(OR(Registro_Triage!P11="", NOT(ISNUMBER(Registro_Triage!P11*1))), "", IF(Registro_Triage!P11*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
         <v>NORMAL</v>
       </c>
       <c r="J11" s="4">
@@ -2486,22 +2451,107 @@
       </c>
       <c r="L11" t="str">
         <f>IF(
-OR(Registro_Triage!G11="",Registro_Triage!H11=""),
+OR(Registro_Triage!H11="",Registro_Triage!I11=""),
 "",
 IF(
-OR(Registro_Triage!G11="M",Registro_Triage!G11="Masculino"),
-IF(Registro_Triage!H11&lt;0.94,"Normal",
-IF(Registro_Triage!H11&lt;1.02,"Riesgo aumentado","Alto riesgo")),
+OR(Registro_Triage!H11="M",Registro_Triage!H11="Masculino"),
+IF(Registro_Triage!I11&lt;0.94,"Normal",
+IF(Registro_Triage!I11&lt;1.02,"Riesgo aumentado","Alto riesgo")),
 IF(
-OR(Registro_Triage!G11="F",Registro_Triage!G11="Femenino"),
-IF(Registro_Triage!H11&lt;0.8,"Normal",
-IF(Registro_Triage!H11&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
+OR(Registro_Triage!H11="F",Registro_Triage!H11="Femenino"),
+IF(Registro_Triage!I11&lt;0.8,"Normal",
+IF(Registro_Triage!I11&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
 ""
 )
 ))</f>
         <v>Normal</v>
       </c>
     </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <f>Tabla_Triage[[#This Row],[ID Paciente]]</f>
+        <v>40329710</v>
+      </c>
+      <c r="B12" s="1">
+        <f>Tabla_Triage[[#This Row],[Fecha]]</f>
+        <v>46036</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>Tabla_Triage[[#This Row],[Sexo]]</f>
+        <v>M</v>
+      </c>
+      <c r="D12" s="8">
+        <f>IFERROR(Registro_Triage!E12/(Registro_Triage!F12^2),"")</f>
+        <v>23.629489603024574</v>
+      </c>
+      <c r="E12" s="9" t="str">
+        <f>IF(D12="","",IF(D12&lt;18.5,"Bajo peso",IF(D12&lt;25,"Normal",IF(D12&lt;30,"Sobrepeso","Obesidad"))))</f>
+        <v>Normal</v>
+      </c>
+      <c r="F12" s="11">
+        <f>IF(COUNT(Registro_Triage!J12, Registro_Triage!L12)=0, "", AVERAGE(Registro_Triage!J12, Registro_Triage!L12))</f>
+        <v>135</v>
+      </c>
+      <c r="G12" s="11">
+        <f>IF(COUNT(Registro_Triage!K12, Registro_Triage!M12)=0, "", AVERAGE(Registro_Triage!K12, Registro_Triage!M12))</f>
+        <v>85</v>
+      </c>
+      <c r="H12" s="13" t="str">
+        <f>IF(
+OR(I12="",J12="",K12=""),
+"",
+IF(
+OR(I12=1,J12=1),
+"ALTO",
+IF(K12=1,"MEDIO","BAJO")
+)
+)</f>
+        <v>ALTO</v>
+      </c>
+      <c r="I12" s="13" t="str">
+        <f>IF(OR(Registro_Triage!P12="", NOT(ISNUMBER(Registro_Triage!P12*1))), "", IF(Registro_Triage!P12*1 &lt; VLOOKUP("Saturación O2 Normal", Referencias!$A:$C, 2, 0), "ALTO", "NORMAL"))</f>
+        <v>NORMAL</v>
+      </c>
+      <c r="J12" s="4">
+        <f>IF(
+OR(
+F12 &gt; VLOOKUP("Presión Sistólica Normal",Referencias!A:C,3,FALSE),
+G12 &gt; VLOOKUP("Presión Diastólica Normal",Referencias!A:C,3,FALSE)
+),
+1,
+0
+)</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <f>IF(
+OR(
+D12 &lt; VLOOKUP("IMC Normal",Referencias!A:C,2,FALSE),
+D12 &gt; VLOOKUP("IMC Normal",Referencias!A:C,3,FALSE)
+),
+1,
+0
+)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="4" t="str">
+        <f>IF(
+OR(Registro_Triage!H12="",Registro_Triage!I12=""),
+"",
+IF(
+OR(Registro_Triage!H12="M",Registro_Triage!H12="Masculino"),
+IF(Registro_Triage!I12&lt;0.94,"Normal",
+IF(Registro_Triage!I12&lt;1.02,"Riesgo aumentado","Alto riesgo")),
+IF(
+OR(Registro_Triage!H12="F",Registro_Triage!H12="Femenino"),
+IF(Registro_Triage!I12&lt;0.8,"Normal",
+IF(Registro_Triage!I12&lt;=0.88,"Riesgo aumentado","Alto riesgo")),
+""
+)
+))</f>
+        <v>Normal</v>
+      </c>
+    </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G13" s="12"/>
     </row>
@@ -2510,40 +2560,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="BAJO">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="BAJO">
       <formula>NOT(ISERROR(SEARCH("BAJO",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="MEDIO">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="MEDIO">
       <formula>NOT(ISERROR(SEARCH("MEDIO",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="ALTO">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="ALTO">
       <formula>NOT(ISERROR(SEARCH("ALTO",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="ALTO">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="ALTO">
       <formula>NOT(ISERROR(SEARCH("ALTO",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="NORMAL">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="NORMAL">
       <formula>NOT(ISERROR(SEARCH("NORMAL",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Alto riesgo">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Alto riesgo">
       <formula>NOT(ISERROR(SEARCH("Alto riesgo",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Riesgo aumentado">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Riesgo aumentado">
       <formula>NOT(ISERROR(SEARCH("Riesgo aumentado",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Normal">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Normal">
       <formula>NOT(ISERROR(SEARCH("Normal",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="F2:F11 G2:G11" formulaRange="1"/>
-  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -2567,18 +2614,18 @@
   <sheetData>
     <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="16">
         <v>18.5</v>
@@ -2589,7 +2636,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="16">
         <v>90</v>
@@ -2600,7 +2647,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="16">
         <v>60</v>
@@ -2611,7 +2658,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="16">
         <v>60</v>
@@ -2622,7 +2669,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="16">
         <v>95</v>
@@ -2633,7 +2680,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="16">
         <v>70</v>
